--- a/02_SLR_20250726.xlsx
+++ b/02_SLR_20250726.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kbcconsultants-my.sharepoint.com/personal/t_gaub_kbc-consultants_com/Documents/Dokumente/Masterarbeit/06_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4842" documentId="13_ncr:1_{88A93FC4-286D-4285-8525-874D7EBEC26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{018BC110-9490-42D7-9539-8BFD9517742B}"/>
+  <xr:revisionPtr revIDLastSave="4880" documentId="13_ncr:1_{88A93FC4-286D-4285-8525-874D7EBEC26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7249A963-ABC3-4859-A22D-8B11BF31B85F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{673855B2-B6CE-4D11-B292-8190FC9478B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{673855B2-B6CE-4D11-B292-8190FC9478B7}"/>
   </bookViews>
   <sheets>
     <sheet name="SLR - 26.07.2025" sheetId="1" r:id="rId1"/>
@@ -6002,9 +6002,6 @@
     <t>Skin Model Shape (Simulation)</t>
   </si>
   <si>
-    <t>EC3, EC4</t>
-  </si>
-  <si>
     <t>Magnetic Tiles</t>
   </si>
   <si>
@@ -7360,6 +7357,9 @@
   <si>
     <t>The study incorporates additional data beyond visual information for defect
 detection.</t>
+  </si>
+  <si>
+    <t>EC3; EC4</t>
   </si>
 </sst>
 </file>
@@ -7645,6 +7645,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7666,7 +7667,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
@@ -7675,114 +7675,7 @@
     <cellStyle name="Prozent" xfId="3" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -8186,27 +8079,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{881E856D-EC9E-44C4-9330-3A955EE9FD03}" name="Tabelle4" displayName="Tabelle4" ref="A2:AN162" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{881E856D-EC9E-44C4-9330-3A955EE9FD03}" name="Tabelle4" displayName="Tabelle4" ref="A2:AN162" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A2:AN162" xr:uid="{881E856D-EC9E-44C4-9330-3A955EE9FD03}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="2025"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="38">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AN160">
-    <sortCondition ref="A2:A162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AN118">
+    <sortCondition descending="1" ref="AK2:AK162"/>
   </sortState>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{6DB90953-A843-4880-9C2A-A2D38BF9F65D}" name="Nr." dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{001D204D-1466-49D9-BD92-81C20F370014}" name="Title" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{57531ED6-FA4C-4B89-AEE3-3B1213552CB2}" name="DOI / URL" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{5FBCC013-AD18-435D-83FA-4F3B7BD69D14}" name="Year" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{C74FE578-DB5D-4713-BFC3-6D0D3CEEBD7A}" name="Authors" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{6DB90953-A843-4880-9C2A-A2D38BF9F65D}" name="Nr." dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{001D204D-1466-49D9-BD92-81C20F370014}" name="Title" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{57531ED6-FA4C-4B89-AEE3-3B1213552CB2}" name="DOI / URL" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{5FBCC013-AD18-435D-83FA-4F3B7BD69D14}" name="Year" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{C74FE578-DB5D-4713-BFC3-6D0D3CEEBD7A}" name="Authors" dataDxfId="24"/>
     <tableColumn id="6" xr3:uid="{B932122E-A8CF-4972-BDC5-CF8770E2F228}" name="Product">
       <calculatedColumnFormula>""</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{2CD1703C-FCFA-43AB-8B60-7B3735960B94}" name="Industry"/>
-    <tableColumn id="8" xr3:uid="{D1396795-DD1D-457E-AF63-AB868397B353}" name="Type of Study" dataDxfId="34"/>
-    <tableColumn id="27" xr3:uid="{981EBD18-7C6C-4B54-BC70-B3EA7B4EC671}" name="Focus" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{D1396795-DD1D-457E-AF63-AB868397B353}" name="Type of Study" dataDxfId="23"/>
+    <tableColumn id="27" xr3:uid="{981EBD18-7C6C-4B54-BC70-B3EA7B4EC671}" name="Focus" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(Tabelle4[[#This Row],[Title]],#REF!,9,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{E4C46C89-F45D-4FED-BBB4-C76759ADD719}" name="AI-Method"/>
@@ -8215,8 +8113,8 @@
     <tableColumn id="40" xr3:uid="{07733F5E-E83C-4A60-93A9-01F655F5B60D}" name="Supervised / Unsupervised Training"/>
     <tableColumn id="11" xr3:uid="{5B8C5DDA-A1F1-433F-8172-CBF0CE1FEE95}" name="Transfer Learning"/>
     <tableColumn id="12" xr3:uid="{5FB881FF-860E-42AD-AD94-63A70B77397D}" name="Dataset Name"/>
-    <tableColumn id="34" xr3:uid="{15F9216E-D21B-421C-92E7-CD5748C06EF1}" name="Dataset Size" dataDxfId="32" dataCellStyle="Komma"/>
-    <tableColumn id="42" xr3:uid="{49F08245-EF2B-4456-8C50-F3AC4D57C552}" name="Defective Classified" dataDxfId="31" dataCellStyle="Komma"/>
+    <tableColumn id="34" xr3:uid="{15F9216E-D21B-421C-92E7-CD5748C06EF1}" name="Dataset Size" dataDxfId="21" dataCellStyle="Komma"/>
+    <tableColumn id="42" xr3:uid="{49F08245-EF2B-4456-8C50-F3AC4D57C552}" name="Defective Classified" dataDxfId="20" dataCellStyle="Komma"/>
     <tableColumn id="35" xr3:uid="{0683BF11-ADC0-457B-A820-D039D5390DB7}" name="Dataset Split"/>
     <tableColumn id="39" xr3:uid="{77E4996B-97C9-4202-B5B2-86656F0531A2}" name="Model Input Image Size"/>
     <tableColumn id="13" xr3:uid="{02ED8B74-C57E-4ECE-84AF-5932F7BBD1C9}" name="Dataset Av."/>
@@ -8224,11 +8122,11 @@
     <tableColumn id="15" xr3:uid="{8F6FD7B2-47ED-469D-BB3C-19632B15CE42}" name="ACC" dataCellStyle="Prozent"/>
     <tableColumn id="16" xr3:uid="{4BE0B786-0AAE-4CD4-AE1F-047715A6334F}" name="PRE"/>
     <tableColumn id="41" xr3:uid="{503F6E2A-A64D-4EE7-B2C4-56320DC2E91A}" name="REC"/>
-    <tableColumn id="45" xr3:uid="{A74BDADB-04AD-462C-AC94-68C988A074D3}" name="F1-Score" dataDxfId="30" dataCellStyle="Prozent"/>
+    <tableColumn id="45" xr3:uid="{A74BDADB-04AD-462C-AC94-68C988A074D3}" name="F1-Score" dataDxfId="19" dataCellStyle="Prozent"/>
     <tableColumn id="43" xr3:uid="{FE557CE2-B821-452F-938F-70F4C000D0EC}" name="FPR"/>
-    <tableColumn id="36" xr3:uid="{5587D03D-999D-45CB-B98C-D4C64C48D247}" name="mAP[0.5:0.95]" dataDxfId="29" dataCellStyle="Prozent"/>
-    <tableColumn id="44" xr3:uid="{02DF39A2-7437-418F-84AB-F6A776CAAC0D}" name="mAP[0.5]" dataDxfId="28" dataCellStyle="Prozent"/>
-    <tableColumn id="38" xr3:uid="{673ACEC5-EDE2-4CA4-BD92-E81F49DF8BF5}" name="IoU" dataDxfId="27" dataCellStyle="Prozent"/>
+    <tableColumn id="36" xr3:uid="{5587D03D-999D-45CB-B98C-D4C64C48D247}" name="mAP[0.5:0.95]" dataDxfId="18" dataCellStyle="Prozent"/>
+    <tableColumn id="44" xr3:uid="{02DF39A2-7437-418F-84AB-F6A776CAAC0D}" name="mAP[0.5]" dataDxfId="17" dataCellStyle="Prozent"/>
+    <tableColumn id="38" xr3:uid="{673ACEC5-EDE2-4CA4-BD92-E81F49DF8BF5}" name="IoU" dataDxfId="16" dataCellStyle="Prozent"/>
     <tableColumn id="17" xr3:uid="{5813D387-7257-4F9B-871F-1390993035B4}" name="Cycle Time (ms)"/>
     <tableColumn id="18" xr3:uid="{025FA9D5-EDF4-499B-A9D0-8E821E9F0E9A}" name="Frames per Second (FPS)"/>
     <tableColumn id="37" xr3:uid="{9FBD470F-70D0-452A-A8DD-41BD19B7BF0B}" name="Measurement Time (ms)"/>
@@ -8236,8 +8134,8 @@
     <tableColumn id="20" xr3:uid="{B808385C-83B6-489C-8C48-E5C7DD06C2EA}" name="Real World Applied"/>
     <tableColumn id="21" xr3:uid="{29DEEB11-0673-4541-89CB-7F86BEB69272}" name="Infrastructur to Apply"/>
     <tableColumn id="22" xr3:uid="{CDA2080D-9994-481B-A2AD-7E52E161055C}" name="Environment"/>
-    <tableColumn id="24" xr3:uid="{F89D551D-A45D-4552-BD41-AF94820CEA1F}" name="SJR" dataDxfId="26"/>
-    <tableColumn id="25" xr3:uid="{FF0B3C8D-DC88-4D7E-8B99-6EFE3F1093FB}" name="CiteScore" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{F89D551D-A45D-4552-BD41-AF94820CEA1F}" name="SJR" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{FF0B3C8D-DC88-4D7E-8B99-6EFE3F1093FB}" name="CiteScore" dataDxfId="14"/>
     <tableColumn id="28" xr3:uid="{36FBCEBD-B87B-484C-A312-9BD823194ABD}" name="EC/!IC"/>
     <tableColumn id="29" xr3:uid="{25DC596A-5B10-474C-8152-596ECE66C49A}" name="EC/!IC Explanation"/>
   </tableColumns>
@@ -8246,7 +8144,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{459BEF49-8D5A-4340-8B40-8F606875DA7C}" name="Tabelle3" displayName="Tabelle3" ref="A1:D24" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{459BEF49-8D5A-4340-8B40-8F606875DA7C}" name="Tabelle3" displayName="Tabelle3" ref="A1:D24" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:D24" xr:uid="{459BEF49-8D5A-4340-8B40-8F606875DA7C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5CF8E5E4-80C1-40BF-A350-6A380401B406}" name="Name"/>
@@ -8259,7 +8157,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DABD6EED-64A8-4DAB-919D-DE476983DF93}" name="Tabelle2" displayName="Tabelle2" ref="A1:T161" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DABD6EED-64A8-4DAB-919D-DE476983DF93}" name="Tabelle2" displayName="Tabelle2" ref="A1:T161" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:T161" xr:uid="{DABD6EED-64A8-4DAB-919D-DE476983DF93}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{2E21891B-FCD0-4A4A-838A-ABADAF2E5969}" name="abstract"/>
@@ -8606,9 +8504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408F9888-1028-48E7-A091-3949F8818483}">
   <dimension ref="A1:AN162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7:Q160"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8648,46 +8546,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="29" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="35"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
     </row>
     <row r="2" spans="1:40" s="2" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -8721,13 +8619,13 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>20</v>
@@ -8739,13 +8637,13 @@
         <v>1850</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>1854</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>12</v>
@@ -8760,22 +8658,22 @@
         <v>11</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="AA2" s="15" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>2042</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>2043</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>18</v>
@@ -8784,10 +8682,10 @@
         <v>19</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>15</v>
@@ -8808,7 +8706,7 @@
         <v>1872</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="3" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -8845,7 +8743,7 @@
         <v>1806</v>
       </c>
       <c r="AM3" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="AN3" t="s">
         <v>1807</v>
@@ -8888,7 +8786,7 @@
         <v>1806</v>
       </c>
       <c r="AM4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN4" t="s">
         <v>1808</v>
@@ -8911,10 +8809,10 @@
         <v>1783</v>
       </c>
       <c r="F5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G5" t="s">
         <v>2024</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2025</v>
       </c>
       <c r="P5" s="7"/>
       <c r="R5"/>
@@ -8933,7 +8831,7 @@
         <v>1848</v>
       </c>
       <c r="AN5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="6" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -8970,33 +8868,33 @@
         <v>1806</v>
       </c>
       <c r="AM6" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="AN6" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>45</v>
+        <v>900</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>897</v>
       </c>
       <c r="D7">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="E7" t="s">
-        <v>1646</v>
+        <v>1727</v>
       </c>
       <c r="F7" t="s">
-        <v>1973</v>
+        <v>1989</v>
       </c>
       <c r="G7" t="s">
-        <v>1822</v>
+        <v>1885</v>
       </c>
       <c r="H7" t="s">
         <v>1841</v>
@@ -9005,35 +8903,34 @@
         <v>1809</v>
       </c>
       <c r="J7" t="s">
-        <v>1974</v>
+        <v>1813</v>
       </c>
       <c r="K7" t="s">
         <v>1806</v>
       </c>
       <c r="L7" t="s">
-        <v>1975</v>
+        <v>1827</v>
       </c>
       <c r="M7" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N7" t="s">
         <v>1838</v>
       </c>
       <c r="O7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P7" s="7">
-        <v>7150</v>
-      </c>
-      <c r="Q7" s="7">
-        <f>2965+2965+400+400+127+293</f>
-        <v>7150</v>
+        <v>2161</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>2237</v>
       </c>
       <c r="R7" t="s">
-        <v>1977</v>
+        <v>1936</v>
       </c>
       <c r="S7" t="s">
-        <v>1976</v>
+        <v>1990</v>
       </c>
       <c r="T7" t="s">
         <v>1839</v>
@@ -9044,35 +8941,35 @@
       <c r="V7" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="W7" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>1806</v>
+      <c r="W7" s="10">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0.94889999999999997</v>
       </c>
       <c r="Y7" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="Z7" s="10" t="s">
-        <v>1806</v>
+      <c r="Z7" s="10">
+        <v>8.7800000000000003E-2</v>
       </c>
       <c r="AA7" s="10">
-        <v>0.99829999999999997</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC7" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>18.22</v>
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AF7">
+        <v>37</v>
       </c>
       <c r="AG7" t="s">
         <v>1839</v>
@@ -9081,39 +8978,39 @@
         <v>1839</v>
       </c>
       <c r="AI7" t="s">
-        <v>2238</v>
+        <v>1858</v>
       </c>
       <c r="AJ7" t="s">
-        <v>2238</v>
+        <v>1859</v>
       </c>
       <c r="AK7">
-        <v>1.4710000000000001</v>
+        <v>3.633</v>
       </c>
       <c r="AL7">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>58</v>
+        <v>1036</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1033</v>
       </c>
       <c r="D8">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>1647</v>
+        <v>1741</v>
       </c>
       <c r="F8" t="s">
-        <v>1954</v>
+        <v>2065</v>
       </c>
       <c r="G8" t="s">
-        <v>1955</v>
+        <v>2066</v>
       </c>
       <c r="H8" t="s">
         <v>1841</v>
@@ -9122,61 +9019,63 @@
         <v>1809</v>
       </c>
       <c r="J8" t="s">
-        <v>1813</v>
+        <v>1964</v>
       </c>
       <c r="K8" t="s">
-        <v>1806</v>
+        <v>1830</v>
       </c>
       <c r="L8" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="M8" t="s">
-        <v>2238</v>
+        <v>2143</v>
       </c>
       <c r="N8" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="O8" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="P8" s="7">
-        <v>2540</v>
+        <f>1200+600</f>
+        <v>1800</v>
       </c>
       <c r="Q8" s="7">
-        <v>4830</v>
+        <f>1200+300</f>
+        <v>1500</v>
       </c>
       <c r="R8" t="s">
-        <v>1855</v>
+        <v>2067</v>
       </c>
       <c r="S8" t="s">
-        <v>2314</v>
+        <v>2237</v>
       </c>
       <c r="T8" t="s">
-        <v>1933</v>
+        <v>1839</v>
       </c>
       <c r="U8" t="s">
         <v>1839</v>
       </c>
-      <c r="V8" s="10">
-        <v>0.996</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="X8" s="10">
-        <v>0.95499999999999996</v>
+      <c r="V8" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="Y8" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="Z8" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>1806</v>
+      <c r="Z8" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0.36499999999999999</v>
       </c>
       <c r="AC8" s="10" t="s">
         <v>1806</v>
@@ -9184,11 +9083,11 @@
       <c r="AD8" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="AE8" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AF8">
-        <v>1694</v>
+      <c r="AE8">
+        <v>22.1</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1806</v>
       </c>
       <c r="AG8" t="s">
         <v>1839</v>
@@ -9200,16 +9099,16 @@
         <v>1858</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1956</v>
+        <v>1859</v>
       </c>
       <c r="AK8">
-        <v>1.6519999999999999</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="AL8">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9226,7 +9125,7 @@
         <v>1648</v>
       </c>
       <c r="F9" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="G9" t="s">
         <v>1810</v>
@@ -9244,16 +9143,16 @@
         <v>1806</v>
       </c>
       <c r="L9" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="M9" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="O9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P9" s="7">
         <v>2230</v>
@@ -9262,10 +9161,10 @@
         <v>2230</v>
       </c>
       <c r="R9" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S9" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="T9" t="s">
         <v>1839</v>
@@ -9310,13 +9209,13 @@
         <v>1839</v>
       </c>
       <c r="AH9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="AI9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ9" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK9">
         <v>3.633</v>
@@ -9325,7 +9224,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9342,10 +9241,10 @@
         <v>1650</v>
       </c>
       <c r="F10" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G10" t="s">
         <v>2152</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2153</v>
       </c>
       <c r="H10" t="s">
         <v>1841</v>
@@ -9354,7 +9253,7 @@
         <v>1809</v>
       </c>
       <c r="J10" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="K10" t="s">
         <v>1806</v>
@@ -9363,7 +9262,7 @@
         <v>1806</v>
       </c>
       <c r="M10" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="N10" t="s">
         <v>1839</v>
@@ -9378,10 +9277,10 @@
         <v>566</v>
       </c>
       <c r="R10" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="S10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="T10" t="s">
         <v>1839</v>
@@ -9429,10 +9328,10 @@
         <v>1839</v>
       </c>
       <c r="AI10" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ10" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK10">
         <v>3.633</v>
@@ -9458,7 +9357,7 @@
         <v>1729</v>
       </c>
       <c r="F11" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G11" t="s">
         <v>1814</v>
@@ -9477,10 +9376,10 @@
         <v>23.3</v>
       </c>
       <c r="AM11" t="s">
-        <v>1876</v>
+        <v>2317</v>
       </c>
       <c r="AN11" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="12" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -9500,7 +9399,7 @@
         <v>1793</v>
       </c>
       <c r="F12" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G12" t="s">
         <v>1815</v>
@@ -9519,10 +9418,10 @@
         <v>23.3</v>
       </c>
       <c r="AM12" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="AN12" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="13" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -9562,7 +9461,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="AM13" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN13" t="s">
         <v>1808</v>
@@ -9585,10 +9484,10 @@
         <v>1737</v>
       </c>
       <c r="F14" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G14" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="P14" s="7"/>
       <c r="R14"/>
@@ -9604,10 +9503,10 @@
         <v>24.3</v>
       </c>
       <c r="AM14" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AN14" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -9647,7 +9546,7 @@
         <v>21.7</v>
       </c>
       <c r="AM15" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN15" t="s">
         <v>1808</v>
@@ -9690,33 +9589,33 @@
         <v>22.1</v>
       </c>
       <c r="AM16" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN16" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D17">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E17" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="F17" t="s">
-        <v>2015</v>
+        <v>1903</v>
       </c>
       <c r="G17" t="s">
-        <v>2253</v>
+        <v>1904</v>
       </c>
       <c r="H17" t="s">
         <v>1841</v>
@@ -9725,73 +9624,74 @@
         <v>1809</v>
       </c>
       <c r="J17" t="s">
-        <v>1813</v>
+        <v>2292</v>
       </c>
       <c r="K17" t="s">
-        <v>1806</v>
+        <v>1905</v>
       </c>
       <c r="L17" t="s">
-        <v>2016</v>
+        <v>1806</v>
       </c>
       <c r="M17" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N17" t="s">
         <v>1838</v>
       </c>
       <c r="O17" t="s">
-        <v>2238</v>
+        <v>1909</v>
       </c>
       <c r="P17" s="7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>2238</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>2017</v>
+        <v>2237</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1855</v>
       </c>
       <c r="S17" t="s">
-        <v>2238</v>
+        <v>1881</v>
       </c>
       <c r="T17" t="s">
-        <v>1839</v>
+        <v>1932</v>
       </c>
       <c r="U17" t="s">
         <v>1839</v>
       </c>
-      <c r="V17" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>1806</v>
-      </c>
-      <c r="X17" s="12" t="s">
+      <c r="V17" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X17" s="10" t="s">
         <v>1806</v>
       </c>
       <c r="Y17" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="Z17" s="12" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>0.85</v>
+      <c r="Z17" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="AB17" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="AC17" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AD17" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE17" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AF17" s="10" t="s">
-        <v>1806</v>
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>0.80320000000000003</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AF17" s="13">
+        <f>1000/78.7</f>
+        <v>12.706480304955527</v>
       </c>
       <c r="AG17" t="s">
         <v>1839</v>
@@ -9800,16 +9700,16 @@
         <v>1839</v>
       </c>
       <c r="AI17" t="s">
-        <v>1858</v>
+        <v>2237</v>
       </c>
       <c r="AJ17" t="s">
-        <v>1859</v>
+        <v>2237</v>
       </c>
       <c r="AK17">
-        <v>0.55000000000000004</v>
+        <v>1.9930000000000001</v>
       </c>
       <c r="AL17">
-        <v>3.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="18" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -9849,7 +9749,7 @@
         <v>21</v>
       </c>
       <c r="AM18" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN18" t="s">
         <v>1808</v>
@@ -9872,10 +9772,10 @@
         <v>1704</v>
       </c>
       <c r="F19" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G19" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="P19" s="7"/>
       <c r="R19"/>
@@ -9894,10 +9794,10 @@
         <v>1846</v>
       </c>
       <c r="AN19" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -9914,10 +9814,10 @@
         <v>1652</v>
       </c>
       <c r="F20" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G20" t="s">
         <v>2166</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2167</v>
       </c>
       <c r="H20" t="s">
         <v>1841</v>
@@ -9932,16 +9832,16 @@
         <v>1806</v>
       </c>
       <c r="L20" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="M20" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N20" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="O20" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P20" s="7">
         <v>3231</v>
@@ -9950,10 +9850,10 @@
         <v>2164</v>
       </c>
       <c r="R20" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S20" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="T20" t="s">
         <v>1839</v>
@@ -10050,7 +9950,7 @@
         <v>15.3</v>
       </c>
       <c r="AM21" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN21" t="s">
         <v>1808</v>
@@ -10058,25 +9958,25 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>127</v>
+        <v>934</v>
+      </c>
+      <c r="C22" t="s">
+        <v>931</v>
       </c>
       <c r="D22">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>1653</v>
+        <v>1731</v>
       </c>
       <c r="F22" t="s">
-        <v>1904</v>
+        <v>1956</v>
       </c>
       <c r="G22" t="s">
-        <v>1905</v>
+        <v>1810</v>
       </c>
       <c r="H22" t="s">
         <v>1841</v>
@@ -10085,95 +9985,95 @@
         <v>1809</v>
       </c>
       <c r="J22" t="s">
-        <v>2293</v>
+        <v>1957</v>
       </c>
       <c r="K22" t="s">
-        <v>1906</v>
+        <v>1806</v>
       </c>
       <c r="L22" t="s">
         <v>1806</v>
       </c>
       <c r="M22" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N22" t="s">
         <v>1838</v>
       </c>
       <c r="O22" t="s">
-        <v>1910</v>
+        <v>2237</v>
       </c>
       <c r="P22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>2238</v>
+        <v>88897</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>4912</v>
       </c>
       <c r="R22" t="s">
         <v>1855</v>
       </c>
       <c r="S22" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="T22" t="s">
-        <v>1933</v>
+        <v>1839</v>
       </c>
       <c r="U22" t="s">
         <v>1839</v>
       </c>
-      <c r="V22" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AA22" s="10">
-        <v>0.96870000000000001</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>0.80320000000000003</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AF22" s="13">
-        <f>1000/78.7</f>
-        <v>12.706480304955527</v>
+      <c r="V22" s="10">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="W22" s="10">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="X22" s="10">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="Z22" s="9" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE22">
+        <v>8.51</v>
+      </c>
+      <c r="AF22">
+        <f>0.1175*1000</f>
+        <v>117.5</v>
       </c>
       <c r="AG22" t="s">
         <v>1839</v>
       </c>
       <c r="AH22" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AI22" t="s">
-        <v>2238</v>
+        <v>1858</v>
       </c>
       <c r="AJ22" t="s">
-        <v>2238</v>
+        <v>1958</v>
       </c>
       <c r="AK22">
-        <v>1.9930000000000001</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="AL22">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
@@ -10190,7 +10090,7 @@
         <v>1654</v>
       </c>
       <c r="F23" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G23" t="s">
         <v>1810</v>
@@ -10202,22 +10102,22 @@
         <v>1809</v>
       </c>
       <c r="J23" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="K23" t="s">
         <v>1806</v>
       </c>
       <c r="L23" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="M23" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N23" t="s">
         <v>1838</v>
       </c>
       <c r="O23" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P23" s="7">
         <v>2890</v>
@@ -10227,7 +10127,7 @@
         <v>6390</v>
       </c>
       <c r="R23" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S23" t="s">
         <v>1857</v>
@@ -10290,7 +10190,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
@@ -10307,7 +10207,7 @@
         <v>1656</v>
       </c>
       <c r="F24" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="G24" t="s">
         <v>1815</v>
@@ -10319,7 +10219,7 @@
         <v>1809</v>
       </c>
       <c r="J24" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="K24" t="s">
         <v>1830</v>
@@ -10328,7 +10228,7 @@
         <v>1806</v>
       </c>
       <c r="M24" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N24" t="s">
         <v>1838</v>
@@ -10351,7 +10251,7 @@
         <v>1857</v>
       </c>
       <c r="T24" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U24" t="s">
         <v>1839</v>
@@ -10398,10 +10298,10 @@
         <v>1839</v>
       </c>
       <c r="AI24" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ24" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK24">
         <v>1.091</v>
@@ -10412,25 +10312,25 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
       <c r="F25" t="s">
-        <v>1877</v>
+        <v>1953</v>
       </c>
       <c r="G25" t="s">
-        <v>1819</v>
+        <v>1954</v>
       </c>
       <c r="H25" t="s">
         <v>1841</v>
@@ -10445,67 +10345,67 @@
         <v>1806</v>
       </c>
       <c r="L25" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
       <c r="M25" t="s">
-        <v>1947</v>
+        <v>2237</v>
       </c>
       <c r="N25" t="s">
-        <v>1838</v>
+        <v>2237</v>
       </c>
       <c r="O25" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P25" s="7">
-        <v>37392</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>2238</v>
+        <v>2540</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>4830</v>
       </c>
       <c r="R25" t="s">
-        <v>2238</v>
+        <v>1855</v>
       </c>
       <c r="S25" t="s">
-        <v>2238</v>
+        <v>2313</v>
       </c>
       <c r="T25" t="s">
-        <v>1839</v>
+        <v>1932</v>
       </c>
       <c r="U25" t="s">
         <v>1839</v>
       </c>
-      <c r="V25" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="W25" t="s">
-        <v>1806</v>
+      <c r="V25" s="10">
+        <v>0.996</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0.94399999999999995</v>
       </c>
       <c r="X25" s="10">
-        <v>0.82</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="Y25" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="Z25" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AA25" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="AB25" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE25" t="s">
+      <c r="Z25" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="AC25" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AD25" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE25" s="10" t="s">
         <v>1806</v>
       </c>
       <c r="AF25">
-        <v>42</v>
+        <v>1694</v>
       </c>
       <c r="AG25" t="s">
         <v>1839</v>
@@ -10517,16 +10417,16 @@
         <v>1858</v>
       </c>
       <c r="AJ25" t="s">
-        <v>1859</v>
+        <v>1955</v>
       </c>
       <c r="AK25">
-        <v>1.244</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="AL25">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -10543,10 +10443,10 @@
         <v>1659</v>
       </c>
       <c r="F26" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G26" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H26" t="s">
         <v>1841</v>
@@ -10555,7 +10455,7 @@
         <v>1809</v>
       </c>
       <c r="J26" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K26" t="s">
         <v>1806</v>
@@ -10564,13 +10464,13 @@
         <v>1806</v>
       </c>
       <c r="M26" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N26" t="s">
         <v>1839</v>
       </c>
       <c r="O26" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P26" s="7">
         <v>407</v>
@@ -10582,7 +10482,7 @@
         <v>1855</v>
       </c>
       <c r="S26" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="T26" t="s">
         <v>1839</v>
@@ -10630,10 +10530,10 @@
         <v>1839</v>
       </c>
       <c r="AI26" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ26" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK26">
         <v>0.504</v>
@@ -10679,7 +10579,7 @@
         <v>22.4</v>
       </c>
       <c r="AM27" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN27" t="s">
         <v>1808</v>
@@ -10722,7 +10622,7 @@
         <v>22.4</v>
       </c>
       <c r="AM28" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN28" t="s">
         <v>1808</v>
@@ -10745,10 +10645,10 @@
         <v>1779</v>
       </c>
       <c r="F29" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G29" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="P29" s="7"/>
       <c r="R29"/>
@@ -10767,7 +10667,7 @@
         <v>1846</v>
       </c>
       <c r="AN29" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="30" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -10826,10 +10726,10 @@
         <v>1678</v>
       </c>
       <c r="F31" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G31" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="P31" s="7"/>
       <c r="R31"/>
@@ -10848,10 +10748,10 @@
         <v>1846</v>
       </c>
       <c r="AN31" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
@@ -10868,10 +10768,10 @@
         <v>1660</v>
       </c>
       <c r="F32" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G32" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H32" t="s">
         <v>1841</v>
@@ -10880,7 +10780,7 @@
         <v>1809</v>
       </c>
       <c r="J32" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="K32" t="s">
         <v>1806</v>
@@ -10889,31 +10789,31 @@
         <v>1806</v>
       </c>
       <c r="M32" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N32" t="s">
         <v>1839</v>
       </c>
       <c r="O32" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P32" s="7">
         <v>360</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R32" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="S32" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="T32" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U32" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="V32" s="10">
         <f>(100+88.3+94.1+91+91.5+100+93.9)/7/100</f>
@@ -10956,10 +10856,10 @@
         <v>1839</v>
       </c>
       <c r="AI32" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ32" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK32">
         <v>1.556</v>
@@ -10968,7 +10868,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
@@ -10997,7 +10897,7 @@
         <v>1811</v>
       </c>
       <c r="J33" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="K33" t="s">
         <v>1806</v>
@@ -11006,25 +10906,25 @@
         <v>1806</v>
       </c>
       <c r="M33" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="N33" t="s">
         <v>1839</v>
       </c>
       <c r="O33" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="P33" s="7">
         <v>5354</v>
       </c>
-      <c r="Q33" s="36" t="s">
-        <v>2238</v>
+      <c r="Q33" s="29" t="s">
+        <v>2237</v>
       </c>
       <c r="R33" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="S33" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="T33" t="s">
         <v>1838</v>
@@ -11085,7 +10985,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>21</v>
       </c>
@@ -11102,7 +11002,7 @@
         <v>1666</v>
       </c>
       <c r="F34" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="G34" t="s">
         <v>1822</v>
@@ -11117,19 +11017,19 @@
         <v>1813</v>
       </c>
       <c r="K34" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="L34" t="s">
         <v>1806</v>
       </c>
       <c r="M34" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="N34" t="s">
         <v>1838</v>
       </c>
       <c r="O34" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P34" s="7">
         <v>28</v>
@@ -11141,7 +11041,7 @@
         <v>1806</v>
       </c>
       <c r="S34" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="T34" t="s">
         <v>1839</v>
@@ -11184,13 +11084,13 @@
         <v>220</v>
       </c>
       <c r="AG34" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="AH34" t="s">
         <v>1839</v>
       </c>
       <c r="AI34" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ34" t="s">
         <v>1859</v>
@@ -11202,7 +11102,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>22</v>
       </c>
@@ -11219,19 +11119,19 @@
         <v>1667</v>
       </c>
       <c r="F35" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G35" t="s">
         <v>1810</v>
       </c>
       <c r="H35" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="I35" t="s">
         <v>1811</v>
       </c>
       <c r="J35" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="K35" t="s">
         <v>1830</v>
@@ -11240,13 +11140,13 @@
         <v>1806</v>
       </c>
       <c r="M35" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N35" t="s">
         <v>1838</v>
       </c>
       <c r="O35" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P35" s="7">
         <v>3673</v>
@@ -11255,10 +11155,10 @@
         <v>970</v>
       </c>
       <c r="R35" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="S35" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="T35" t="s">
         <v>1839</v>
@@ -11308,10 +11208,10 @@
         <v>1839</v>
       </c>
       <c r="AI35" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ35" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK35">
         <v>1.6279999999999999</v>
@@ -11357,7 +11257,7 @@
         <v>12.4</v>
       </c>
       <c r="AM36" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN36" t="s">
         <v>1808</v>
@@ -11380,10 +11280,10 @@
         <v>1761</v>
       </c>
       <c r="F37" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G37" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P37" s="7"/>
       <c r="R37"/>
@@ -11402,7 +11302,7 @@
         <v>1848</v>
       </c>
       <c r="AN37" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="38" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -11442,13 +11342,13 @@
         <v>18.3</v>
       </c>
       <c r="AM38" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN38" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>23</v>
       </c>
@@ -11465,10 +11365,10 @@
         <v>1668</v>
       </c>
       <c r="F39" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G39" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="H39" t="s">
         <v>1841</v>
@@ -11486,13 +11386,13 @@
         <v>1806</v>
       </c>
       <c r="M39" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N39" t="s">
         <v>1838</v>
       </c>
       <c r="O39" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="P39" s="7">
         <v>3736</v>
@@ -11504,7 +11404,7 @@
         <v>1855</v>
       </c>
       <c r="S39" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="T39" t="s">
         <v>1839</v>
@@ -11581,10 +11481,10 @@
         <v>1670</v>
       </c>
       <c r="F40" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="G40" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H40" t="s">
         <v>1841</v>
@@ -11593,16 +11493,16 @@
         <v>1809</v>
       </c>
       <c r="J40" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="K40" t="s">
         <v>1806</v>
       </c>
       <c r="L40" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="M40" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N40" t="s">
         <v>1838</v>
@@ -11615,10 +11515,10 @@
         <v>2060</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R40" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="S40" t="s">
         <v>1857</v>
@@ -11627,7 +11527,7 @@
         <v>1838</v>
       </c>
       <c r="U40" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="V40" s="10" t="s">
         <v>1806</v>
@@ -11682,7 +11582,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>26</v>
       </c>
@@ -11720,13 +11620,13 @@
         <v>1862</v>
       </c>
       <c r="M41" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N41" t="s">
         <v>1838</v>
       </c>
       <c r="O41" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P41" s="7">
         <v>4016</v>
@@ -11801,25 +11701,25 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>353</v>
+        <v>757</v>
+      </c>
+      <c r="C42" t="s">
+        <v>754</v>
       </c>
       <c r="D42">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>1674</v>
+        <v>1712</v>
       </c>
       <c r="F42" t="s">
-        <v>2191</v>
+        <v>2088</v>
       </c>
       <c r="G42" t="s">
-        <v>1860</v>
+        <v>2249</v>
       </c>
       <c r="H42" t="s">
         <v>1841</v>
@@ -11828,37 +11728,37 @@
         <v>1809</v>
       </c>
       <c r="J42" t="s">
-        <v>2310</v>
+        <v>2089</v>
       </c>
       <c r="K42" t="s">
-        <v>1806</v>
+        <v>2087</v>
       </c>
       <c r="L42" t="s">
-        <v>2192</v>
+        <v>1806</v>
       </c>
       <c r="M42" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N42" t="s">
-        <v>1839</v>
+        <v>2237</v>
       </c>
       <c r="O42" t="s">
-        <v>1806</v>
+        <v>2090</v>
       </c>
       <c r="P42" s="7">
-        <v>4730</v>
+        <v>2650</v>
       </c>
       <c r="Q42" s="7">
-        <v>4730</v>
+        <v>2650</v>
       </c>
       <c r="R42" t="s">
-        <v>2193</v>
+        <v>2091</v>
       </c>
       <c r="S42" t="s">
-        <v>1857</v>
+        <v>2255</v>
       </c>
       <c r="T42" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U42" t="s">
         <v>1839</v>
@@ -11866,23 +11766,24 @@
       <c r="V42" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="W42" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="X42" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Y42" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Z42" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AA42" s="10">
-        <v>0.88200000000000001</v>
+      <c r="W42" s="12">
+        <f>(0.739+0.707+0.939+0.822+0.641)/5</f>
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="X42" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA42" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="AB42" s="10">
-        <v>0.99099999999999999</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="AC42" s="10" t="s">
         <v>1806</v>
@@ -11891,10 +11792,11 @@
         <v>1806</v>
       </c>
       <c r="AE42">
-        <v>52</v>
-      </c>
-      <c r="AF42" s="10" t="s">
-        <v>1806</v>
+        <v>33</v>
+      </c>
+      <c r="AF42">
+        <f>0.03*1000</f>
+        <v>30</v>
       </c>
       <c r="AG42" t="s">
         <v>1839</v>
@@ -11903,16 +11805,16 @@
         <v>1839</v>
       </c>
       <c r="AI42" t="s">
-        <v>1858</v>
+        <v>2237</v>
       </c>
       <c r="AJ42" t="s">
-        <v>1859</v>
+        <v>2237</v>
       </c>
       <c r="AK42">
-        <v>0.9</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="AL42">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="43" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -11932,10 +11834,10 @@
         <v>1780</v>
       </c>
       <c r="F43" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G43" t="s">
         <v>1917</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1918</v>
       </c>
       <c r="P43" s="7"/>
       <c r="R43"/>
@@ -11974,10 +11876,10 @@
         <v>1755</v>
       </c>
       <c r="F44" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G44" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P44" s="7"/>
       <c r="R44"/>
@@ -11996,10 +11898,10 @@
         <v>1847</v>
       </c>
       <c r="AN44" t="s">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>30</v>
       </c>
@@ -12016,10 +11918,10 @@
         <v>1675</v>
       </c>
       <c r="F45" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H45" t="s">
         <v>1841</v>
@@ -12028,22 +11930,22 @@
         <v>1809</v>
       </c>
       <c r="J45" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K45" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="L45" t="s">
         <v>1806</v>
       </c>
       <c r="M45" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N45" t="s">
         <v>1838</v>
       </c>
       <c r="O45" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P45" s="7">
         <f>227+55+8+4008+1068+43+289+4</f>
@@ -12057,7 +11959,7 @@
         <v>1855</v>
       </c>
       <c r="S45" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="T45" t="s">
         <v>1839</v>
@@ -12105,10 +12007,10 @@
         <v>1839</v>
       </c>
       <c r="AI45" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ45" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK45">
         <v>1.6279999999999999</v>
@@ -12117,7 +12019,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>31</v>
       </c>
@@ -12134,10 +12036,10 @@
         <v>1676</v>
       </c>
       <c r="F46" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G46" t="s">
         <v>1911</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1912</v>
       </c>
       <c r="H46" t="s">
         <v>1841</v>
@@ -12152,28 +12054,28 @@
         <v>1806</v>
       </c>
       <c r="L46" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="M46" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N46" t="s">
         <v>1838</v>
       </c>
       <c r="O46" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P46" s="7">
         <v>1500</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R46" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S46" t="s">
         <v>1914</v>
-      </c>
-      <c r="S46" t="s">
-        <v>1915</v>
       </c>
       <c r="T46" t="s">
         <v>1839</v>
@@ -12250,10 +12152,10 @@
         <v>1772</v>
       </c>
       <c r="F47" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G47" t="s">
         <v>1992</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1993</v>
       </c>
       <c r="H47" t="s">
         <v>1841</v>
@@ -12279,7 +12181,7 @@
         <v>1851</v>
       </c>
       <c r="AN47" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="48" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -12319,7 +12221,7 @@
         <v>14.9</v>
       </c>
       <c r="AM48" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN48" t="s">
         <v>1808</v>
@@ -12362,7 +12264,7 @@
         <v>12.8</v>
       </c>
       <c r="AM49" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN49" t="s">
         <v>1808</v>
@@ -12405,7 +12307,7 @@
         <v>12.8</v>
       </c>
       <c r="AM50" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN50" t="s">
         <v>1808</v>
@@ -12443,10 +12345,10 @@
         <v>1849</v>
       </c>
       <c r="K51" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="N51" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P51" s="7"/>
       <c r="R51"/>
@@ -12465,7 +12367,7 @@
         <v>1851</v>
       </c>
       <c r="AN51" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.3">
@@ -12488,31 +12390,31 @@
         <v>1816</v>
       </c>
       <c r="G52" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="H52" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="I52" t="s">
         <v>1809</v>
       </c>
       <c r="J52" t="s">
+        <v>2104</v>
+      </c>
+      <c r="K52" t="s">
         <v>2105</v>
       </c>
-      <c r="K52" t="s">
-        <v>2106</v>
-      </c>
       <c r="L52" t="s">
         <v>1806</v>
       </c>
       <c r="M52" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N52" t="s">
         <v>1838</v>
       </c>
       <c r="O52" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P52" s="7">
         <v>382</v>
@@ -12521,10 +12423,10 @@
         <v>382</v>
       </c>
       <c r="R52" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="S52" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="T52" t="s">
         <v>1839</v>
@@ -12572,19 +12474,19 @@
         <v>1839</v>
       </c>
       <c r="AI52" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ52" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK52">
         <v>1.6519999999999999</v>
       </c>
       <c r="AL52">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>36</v>
       </c>
@@ -12601,7 +12503,7 @@
         <v>1681</v>
       </c>
       <c r="F53" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="G53" t="s">
         <v>1819</v>
@@ -12616,19 +12518,19 @@
         <v>1813</v>
       </c>
       <c r="K53" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="L53" t="s">
         <v>1806</v>
       </c>
       <c r="M53" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N53" t="s">
         <v>1838</v>
       </c>
       <c r="O53" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P53" s="7">
         <v>3000</v>
@@ -12637,10 +12539,10 @@
         <v>2000</v>
       </c>
       <c r="R53" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="S53" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="T53" t="s">
         <v>1839</v>
@@ -12682,7 +12584,7 @@
         <v>1806</v>
       </c>
       <c r="AG53" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="AH53" t="s">
         <v>1839</v>
@@ -12700,7 +12602,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>37</v>
       </c>
@@ -12717,7 +12619,7 @@
         <v>1682</v>
       </c>
       <c r="F54" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="G54" t="s">
         <v>1810</v>
@@ -12729,7 +12631,7 @@
         <v>1809</v>
       </c>
       <c r="J54" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="K54" t="s">
         <v>1806</v>
@@ -12738,13 +12640,13 @@
         <v>1812</v>
       </c>
       <c r="M54" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N54" t="s">
         <v>1838</v>
       </c>
       <c r="O54" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P54" s="7">
         <v>3500</v>
@@ -12753,10 +12655,10 @@
         <v>1500</v>
       </c>
       <c r="R54" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="S54" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="T54" t="s">
         <v>1839</v>
@@ -12799,10 +12701,10 @@
         <v>6.5</v>
       </c>
       <c r="AG54" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="AH54" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="AI54" t="s">
         <v>1858</v>
@@ -12817,7 +12719,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>41</v>
       </c>
@@ -12834,7 +12736,7 @@
         <v>1685</v>
       </c>
       <c r="F55" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G55" t="s">
         <v>1815</v>
@@ -12846,7 +12748,7 @@
         <v>1809</v>
       </c>
       <c r="J55" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="K55" t="s">
         <v>1806</v>
@@ -12855,7 +12757,7 @@
         <v>1806</v>
       </c>
       <c r="M55" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="O55" t="s">
         <v>1823</v>
@@ -12867,10 +12769,10 @@
         <v>1816</v>
       </c>
       <c r="R55" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="S55" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="T55" t="s">
         <v>1838</v>
@@ -12921,10 +12823,10 @@
         <v>1839</v>
       </c>
       <c r="AI55" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ55" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK55">
         <v>1.8540000000000001</v>
@@ -12950,10 +12852,10 @@
         <v>1686</v>
       </c>
       <c r="F56" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="G56" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H56" t="s">
         <v>1841</v>
@@ -12965,19 +12867,19 @@
         <v>1813</v>
       </c>
       <c r="K56" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="L56" t="s">
         <v>1806</v>
       </c>
       <c r="M56" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N56" t="s">
         <v>1838</v>
       </c>
       <c r="O56" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="P56" s="7">
         <f>900+1800+450+900</f>
@@ -12987,13 +12889,13 @@
         <v>4500</v>
       </c>
       <c r="R56" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="S56" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="T56" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U56" t="s">
         <v>1839</v>
@@ -13068,10 +12970,10 @@
         <v>1688</v>
       </c>
       <c r="F57" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="G57" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H57" t="s">
         <v>1841</v>
@@ -13080,35 +12982,35 @@
         <v>1809</v>
       </c>
       <c r="J57" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="K57" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="L57" t="s">
         <v>1806</v>
       </c>
       <c r="M57" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N57" t="s">
         <v>1838</v>
       </c>
       <c r="O57" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="P57" s="7">
         <f>12568</f>
         <v>12568</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R57" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S57" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="T57" t="s">
         <v>1838</v>
@@ -13156,10 +13058,10 @@
         <v>1839</v>
       </c>
       <c r="AI57" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ57" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK57">
         <v>1.0049999999999999</v>
@@ -13205,7 +13107,7 @@
         <v>9.6</v>
       </c>
       <c r="AM58" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN58" t="s">
         <v>1808</v>
@@ -13231,7 +13133,7 @@
         <v>1826</v>
       </c>
       <c r="G59" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H59" t="s">
         <v>1841</v>
@@ -13240,34 +13142,34 @@
         <v>1809</v>
       </c>
       <c r="J59" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="K59" t="s">
         <v>1806</v>
       </c>
       <c r="M59" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N59" t="s">
         <v>1839</v>
       </c>
       <c r="O59" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P59" s="7">
         <v>10000</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R59" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S59" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="T59" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U59" t="s">
         <v>1839</v>
@@ -13284,33 +13186,33 @@
         <v>9.6</v>
       </c>
       <c r="AM59" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AN59" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>535</v>
+        <v>925</v>
       </c>
       <c r="C60" t="s">
-        <v>532</v>
+        <v>923</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>1690</v>
+        <v>1730</v>
       </c>
       <c r="F60" t="s">
-        <v>2054</v>
+        <v>1978</v>
       </c>
       <c r="G60" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="H60" t="s">
         <v>1841</v>
@@ -13325,73 +13227,74 @@
         <v>1806</v>
       </c>
       <c r="L60" t="s">
-        <v>1827</v>
+        <v>1979</v>
       </c>
       <c r="M60" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N60" t="s">
         <v>1838</v>
       </c>
+      <c r="O60" t="s">
+        <v>2237</v>
+      </c>
       <c r="P60" s="7">
-        <v>10000</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>10000</v>
+        <v>1500</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>2237</v>
       </c>
       <c r="R60" t="s">
         <v>1855</v>
       </c>
       <c r="S60" t="s">
-        <v>2055</v>
+        <v>1980</v>
       </c>
       <c r="T60" t="s">
-        <v>1839</v>
+        <v>1932</v>
       </c>
       <c r="U60" t="s">
         <v>1839</v>
       </c>
       <c r="V60" s="10">
-        <f>(0.967+0.973+1+1+1)/5</f>
-        <v>0.98799999999999988</v>
-      </c>
-      <c r="W60" s="12">
-        <v>1</v>
-      </c>
-      <c r="X60" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="10" t="s">
-        <v>1806</v>
+        <v>0.999</v>
+      </c>
+      <c r="W60" s="10">
+        <v>0.997</v>
+      </c>
+      <c r="X60" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>0.997</v>
       </c>
       <c r="Z60" t="s">
         <v>1806</v>
       </c>
       <c r="AA60" s="10">
-        <f>(0.951+0.958)/2</f>
-        <v>0.9544999999999999</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="AB60" s="10">
-        <f>(0.996+0.997)/2</f>
-        <v>0.99649999999999994</v>
-      </c>
-      <c r="AC60" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AD60" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE60" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AF60" s="10" t="s">
-        <v>1806</v>
+        <v>0.995</v>
+      </c>
+      <c r="AC60" s="10">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE60">
+        <v>256</v>
+      </c>
+      <c r="AF60">
+        <f>(0.141+1.398)/2*1000</f>
+        <v>769.5</v>
       </c>
       <c r="AG60" t="s">
         <v>1839</v>
       </c>
       <c r="AH60" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AI60" t="s">
         <v>1858</v>
@@ -13400,13 +13303,13 @@
         <v>1859</v>
       </c>
       <c r="AK60">
-        <v>1.556</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="AL60">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>48</v>
       </c>
@@ -13429,13 +13332,13 @@
         <v>1816</v>
       </c>
       <c r="H61" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="I61" t="s">
         <v>1809</v>
       </c>
       <c r="J61" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K61" t="s">
         <v>1806</v>
@@ -13444,13 +13347,13 @@
         <v>1806</v>
       </c>
       <c r="M61" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N61" t="s">
         <v>1839</v>
       </c>
       <c r="O61" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="P61" s="7">
         <f>60000/3</f>
@@ -13464,7 +13367,7 @@
         <v>1869</v>
       </c>
       <c r="S61" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="T61" t="s">
         <v>1838</v>
@@ -13512,10 +13415,10 @@
         <v>1839</v>
       </c>
       <c r="AI61" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ61" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK61">
         <v>1.9930000000000001</v>
@@ -13541,10 +13444,10 @@
         <v>1693</v>
       </c>
       <c r="F62" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G62" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="H62" t="s">
         <v>1841</v>
@@ -13553,35 +13456,35 @@
         <v>1811</v>
       </c>
       <c r="J62" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="K62" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="L62" t="s">
         <v>1812</v>
       </c>
       <c r="M62" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N62" t="s">
         <v>1838</v>
       </c>
       <c r="O62" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P62" s="7">
         <f>8250+1120+1170+230+2400+686+510+135+780+220</f>
         <v>15501</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R62" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S62" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="T62" t="s">
         <v>1839</v>
@@ -13634,7 +13537,7 @@
         <v>1858</v>
       </c>
       <c r="AJ62" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK62">
         <v>3.633</v>
@@ -13643,7 +13546,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
@@ -13660,7 +13563,7 @@
         <v>1699</v>
       </c>
       <c r="F63" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G63" t="s">
         <v>1819</v>
@@ -13681,13 +13584,13 @@
         <v>1806</v>
       </c>
       <c r="M63" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N63" t="s">
         <v>1838</v>
       </c>
       <c r="O63" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P63" s="7">
         <v>205</v>
@@ -13696,13 +13599,13 @@
         <v>145</v>
       </c>
       <c r="R63" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="S63" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="T63" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U63" t="s">
         <v>1839</v>
@@ -13747,10 +13650,10 @@
         <v>1839</v>
       </c>
       <c r="AI63" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ63" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK63">
         <v>1.8540000000000001</v>
@@ -13797,7 +13700,7 @@
         <v>13.7</v>
       </c>
       <c r="AM64" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN64" t="s">
         <v>1808</v>
@@ -13820,7 +13723,7 @@
         <v>1791</v>
       </c>
       <c r="F65" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="G65" t="s">
         <v>1817</v>
@@ -13839,33 +13742,33 @@
         <v>13.7</v>
       </c>
       <c r="AM65" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="AN65" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>652</v>
+        <v>1027</v>
       </c>
       <c r="C66" t="s">
-        <v>649</v>
+        <v>1022</v>
       </c>
       <c r="D66">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E66" t="s">
-        <v>1701</v>
+        <v>1740</v>
       </c>
       <c r="F66" t="s">
-        <v>1932</v>
+        <v>1865</v>
       </c>
       <c r="G66" t="s">
-        <v>1886</v>
+        <v>1866</v>
       </c>
       <c r="H66" t="s">
         <v>1841</v>
@@ -13874,38 +13777,37 @@
         <v>1809</v>
       </c>
       <c r="J66" t="s">
-        <v>1936</v>
+        <v>1867</v>
       </c>
       <c r="K66" t="s">
-        <v>1806</v>
+        <v>1868</v>
       </c>
       <c r="L66" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="M66" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N66" t="s">
         <v>1838</v>
       </c>
       <c r="O66" t="s">
-        <v>1935</v>
+        <v>2237</v>
       </c>
       <c r="P66" s="7">
-        <f>309+2952+2261+858+1015+782</f>
-        <v>8177</v>
-      </c>
-      <c r="Q66" s="7">
-        <v>1750</v>
+        <v>10000</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>2237</v>
       </c>
       <c r="R66" t="s">
-        <v>1937</v>
+        <v>1869</v>
       </c>
       <c r="S66" t="s">
-        <v>1857</v>
+        <v>1870</v>
       </c>
       <c r="T66" t="s">
-        <v>1933</v>
+        <v>1839</v>
       </c>
       <c r="U66" t="s">
         <v>1839</v>
@@ -13913,32 +13815,32 @@
       <c r="V66" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="W66" s="10">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="X66" s="10">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="Y66" s="10">
-        <v>0.57999999999999996</v>
+      <c r="W66" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X66" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Y66" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="Z66" t="s">
         <v>1806</v>
       </c>
-      <c r="AA66" s="10">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="AB66" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC66" s="10" t="s">
+      <c r="AA66" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AB66" s="10">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="AC66" t="s">
         <v>1806</v>
       </c>
       <c r="AD66" t="s">
         <v>1806</v>
       </c>
-      <c r="AE66">
-        <v>205.1</v>
+      <c r="AE66" t="s">
+        <v>1806</v>
       </c>
       <c r="AF66" t="s">
         <v>1806</v>
@@ -13950,16 +13852,16 @@
         <v>1839</v>
       </c>
       <c r="AI66" t="s">
-        <v>1858</v>
+        <v>2237</v>
       </c>
       <c r="AJ66" t="s">
-        <v>1859</v>
+        <v>2237</v>
       </c>
       <c r="AK66">
-        <v>1.244</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="AL66">
-        <v>10.199999999999999</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.3">
@@ -13979,10 +13881,10 @@
         <v>1703</v>
       </c>
       <c r="F67" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="G67" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="H67" t="s">
         <v>1841</v>
@@ -13991,22 +13893,22 @@
         <v>1809</v>
       </c>
       <c r="J67" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="K67" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="L67" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="M67" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N67" t="s">
         <v>1839</v>
       </c>
       <c r="O67" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="P67" s="7">
         <f>15200+1800</f>
@@ -14017,13 +13919,13 @@
         <v>17000</v>
       </c>
       <c r="R67" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="S67" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="T67" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U67" t="s">
         <v>1839</v>
@@ -14066,7 +13968,7 @@
         <v>1839</v>
       </c>
       <c r="AH67" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="AI67" t="s">
         <v>1858</v>
@@ -14078,30 +13980,30 @@
         <v>1.6519999999999999</v>
       </c>
       <c r="AL67">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>710</v>
+        <v>535</v>
       </c>
       <c r="C68" t="s">
-        <v>705</v>
+        <v>532</v>
       </c>
       <c r="D68">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E68" t="s">
-        <v>1707</v>
+        <v>1690</v>
       </c>
       <c r="F68" t="s">
-        <v>1852</v>
+        <v>2053</v>
       </c>
       <c r="G68" t="s">
-        <v>1853</v>
+        <v>1814</v>
       </c>
       <c r="H68" t="s">
         <v>1841</v>
@@ -14116,29 +14018,25 @@
         <v>1806</v>
       </c>
       <c r="L68" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="M68" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N68" t="s">
         <v>1838</v>
       </c>
-      <c r="O68" t="s">
-        <v>2238</v>
-      </c>
       <c r="P68" s="7">
-        <v>17885</v>
+        <v>10000</v>
       </c>
       <c r="Q68" s="7">
-        <f>17885-4556</f>
-        <v>13329</v>
+        <v>10000</v>
       </c>
       <c r="R68" t="s">
         <v>1855</v>
       </c>
       <c r="S68" t="s">
-        <v>1857</v>
+        <v>2054</v>
       </c>
       <c r="T68" t="s">
         <v>1839</v>
@@ -14147,13 +14045,14 @@
         <v>1839</v>
       </c>
       <c r="V68" s="10">
-        <v>0.90369999999999995</v>
-      </c>
-      <c r="W68" t="s">
-        <v>1806</v>
-      </c>
-      <c r="X68" t="s">
-        <v>1806</v>
+        <f>(0.967+0.973+1+1+1)/5</f>
+        <v>0.98799999999999988</v>
+      </c>
+      <c r="W68" s="12">
+        <v>1</v>
+      </c>
+      <c r="X68" s="12">
+        <v>1</v>
       </c>
       <c r="Y68" s="10" t="s">
         <v>1806</v>
@@ -14162,22 +14061,24 @@
         <v>1806</v>
       </c>
       <c r="AA68" s="10">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="AB68" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE68">
-        <v>4.2</v>
-      </c>
-      <c r="AF68">
-        <v>3100</v>
+        <f>(0.951+0.958)/2</f>
+        <v>0.9544999999999999</v>
+      </c>
+      <c r="AB68" s="10">
+        <f>(0.996+0.997)/2</f>
+        <v>0.99649999999999994</v>
+      </c>
+      <c r="AC68" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AD68" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE68" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AF68" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="AG68" t="s">
         <v>1839</v>
@@ -14192,10 +14093,10 @@
         <v>1859</v>
       </c>
       <c r="AK68">
-        <v>0.97399999999999998</v>
+        <v>1.556</v>
       </c>
       <c r="AL68">
-        <v>9.4</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -14215,10 +14116,10 @@
         <v>1776</v>
       </c>
       <c r="F69" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G69" t="s">
         <v>2057</v>
-      </c>
-      <c r="G69" t="s">
-        <v>2058</v>
       </c>
       <c r="H69" t="s">
         <v>1841</v>
@@ -14241,10 +14142,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="AM69" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="AN69" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="70" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -14264,10 +14165,10 @@
         <v>1784</v>
       </c>
       <c r="F70" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G70" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P70" s="7"/>
       <c r="R70"/>
@@ -14286,7 +14187,7 @@
         <v>1848</v>
       </c>
       <c r="AN70" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="71" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -14309,7 +14210,7 @@
         <v>1828</v>
       </c>
       <c r="G71" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P71" s="7"/>
       <c r="R71"/>
@@ -14325,10 +14226,10 @@
         <v>13.6</v>
       </c>
       <c r="AM71" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="AN71" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="72" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -14348,26 +14249,26 @@
         <v>1677</v>
       </c>
       <c r="F72" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G72" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H72" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J72" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="O72" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>1816</v>
       </c>
       <c r="R72"/>
       <c r="S72" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V72" s="10"/>
       <c r="W72"/>
@@ -14381,13 +14282,13 @@
         <v>13.1</v>
       </c>
       <c r="AM72" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN72" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>67</v>
       </c>
@@ -14425,13 +14326,13 @@
         <v>1806</v>
       </c>
       <c r="M73" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N73" t="s">
         <v>1838</v>
       </c>
       <c r="O73" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="P73" s="17">
         <f>266+60+277+92+308+89+952+392+293+141+867+1838+431+70+242+109+362+426+242+70+39+100+282+92+105+94+6235+436+263+84+746+52+72+30+229+63+285+57+272+119</f>
@@ -14442,10 +14343,10 @@
         <v>4414</v>
       </c>
       <c r="R73" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="S73" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="T73" t="s">
         <v>1838</v>
@@ -14493,10 +14394,10 @@
         <v>1839</v>
       </c>
       <c r="AI73" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ73" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK73">
         <v>2.2090000000000001</v>
@@ -14542,7 +14443,7 @@
         <v>12.4</v>
       </c>
       <c r="AM74" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN74" t="s">
         <v>1808</v>
@@ -14585,7 +14486,7 @@
         <v>7.4</v>
       </c>
       <c r="AM75" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN75" t="s">
         <v>1808</v>
@@ -14608,10 +14509,10 @@
         <v>1657</v>
       </c>
       <c r="F76" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="G76" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P76" s="7"/>
       <c r="R76"/>
@@ -14627,10 +14528,10 @@
         <v>7.4</v>
       </c>
       <c r="AM76" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="AN76" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -14650,10 +14551,10 @@
         <v>1735</v>
       </c>
       <c r="F77" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G77" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="P77" s="7"/>
       <c r="R77"/>
@@ -14672,7 +14573,7 @@
         <v>1846</v>
       </c>
       <c r="AN77" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="78" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -14692,7 +14593,7 @@
         <v>1694</v>
       </c>
       <c r="F78" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G78" t="s">
         <v>1821</v>
@@ -14714,10 +14615,10 @@
         <v>1846</v>
       </c>
       <c r="AN78" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>68</v>
       </c>
@@ -14734,7 +14635,7 @@
         <v>1710</v>
       </c>
       <c r="F79" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G79" t="s">
         <v>1815</v>
@@ -14746,7 +14647,7 @@
         <v>1809</v>
       </c>
       <c r="J79" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="K79" t="s">
         <v>1830</v>
@@ -14755,13 +14656,13 @@
         <v>1806</v>
       </c>
       <c r="M79" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N79" t="s">
         <v>1838</v>
       </c>
       <c r="O79" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="P79" s="7">
         <v>25000</v>
@@ -14770,10 +14671,10 @@
         <v>20333</v>
       </c>
       <c r="R79" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="S79" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="T79" t="s">
         <v>1838</v>
@@ -14833,27 +14734,27 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>757</v>
-      </c>
-      <c r="C80" t="s">
-        <v>754</v>
+        <v>51</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D80">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E80" t="s">
-        <v>1712</v>
+        <v>1646</v>
       </c>
       <c r="F80" t="s">
-        <v>2089</v>
+        <v>1972</v>
       </c>
       <c r="G80" t="s">
-        <v>2250</v>
+        <v>1822</v>
       </c>
       <c r="H80" t="s">
         <v>1841</v>
@@ -14862,37 +14763,38 @@
         <v>1809</v>
       </c>
       <c r="J80" t="s">
-        <v>2090</v>
+        <v>1973</v>
       </c>
       <c r="K80" t="s">
-        <v>2088</v>
+        <v>1806</v>
       </c>
       <c r="L80" t="s">
-        <v>1806</v>
+        <v>1974</v>
       </c>
       <c r="M80" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N80" t="s">
-        <v>2238</v>
+        <v>1838</v>
       </c>
       <c r="O80" t="s">
-        <v>2091</v>
+        <v>2237</v>
       </c>
       <c r="P80" s="7">
-        <v>2650</v>
+        <v>7150</v>
       </c>
       <c r="Q80" s="7">
-        <v>2650</v>
+        <f>2965+2965+400+400+127+293</f>
+        <v>7150</v>
       </c>
       <c r="R80" t="s">
-        <v>2092</v>
+        <v>1976</v>
       </c>
       <c r="S80" t="s">
-        <v>2256</v>
+        <v>1975</v>
       </c>
       <c r="T80" t="s">
-        <v>1933</v>
+        <v>1839</v>
       </c>
       <c r="U80" t="s">
         <v>1839</v>
@@ -14900,24 +14802,23 @@
       <c r="V80" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="W80" s="12">
-        <f>(0.739+0.707+0.939+0.822+0.641)/5</f>
-        <v>0.76959999999999995</v>
-      </c>
-      <c r="X80" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Y80" s="10">
-        <v>0.76659999999999995</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AA80" s="10">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="AB80" s="10" t="s">
-        <v>1806</v>
+      <c r="W80" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X80" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Y80" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Z80" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA80" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AB80" s="10">
+        <v>0.99829999999999997</v>
       </c>
       <c r="AC80" s="10" t="s">
         <v>1806</v>
@@ -14925,12 +14826,11 @@
       <c r="AD80" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="AE80">
-        <v>33</v>
-      </c>
-      <c r="AF80">
-        <f>0.03*1000</f>
-        <v>30</v>
+      <c r="AE80" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AF80" s="14">
+        <v>18.22</v>
       </c>
       <c r="AG80" t="s">
         <v>1839</v>
@@ -14939,19 +14839,19 @@
         <v>1839</v>
       </c>
       <c r="AI80" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ80" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK80">
-        <v>1.6519999999999999</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="AL80">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>72</v>
       </c>
@@ -14968,10 +14868,10 @@
         <v>1714</v>
       </c>
       <c r="F81" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="G81" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H81" t="s">
         <v>1841</v>
@@ -14980,34 +14880,34 @@
         <v>1809</v>
       </c>
       <c r="J81" t="s">
+        <v>2155</v>
+      </c>
+      <c r="K81" t="s">
         <v>2156</v>
       </c>
-      <c r="K81" t="s">
-        <v>2157</v>
-      </c>
       <c r="L81" t="s">
         <v>1806</v>
       </c>
       <c r="M81" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="N81" t="s">
         <v>1839</v>
       </c>
       <c r="O81" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="P81" s="7">
         <v>46293</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R81" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="S81" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="T81" t="s">
         <v>1839</v>
@@ -15058,10 +14958,10 @@
         <v>1839</v>
       </c>
       <c r="AI81" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ81" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK81">
         <v>2.2090000000000001</v>
@@ -15070,7 +14970,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>73</v>
       </c>
@@ -15087,10 +14987,10 @@
         <v>1715</v>
       </c>
       <c r="F82" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G82" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H82" t="s">
         <v>1841</v>
@@ -15108,13 +15008,13 @@
         <v>1806</v>
       </c>
       <c r="M82" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N82" t="s">
         <v>1839</v>
       </c>
       <c r="O82" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P82" s="7">
         <f>900*2+150</f>
@@ -15127,7 +15027,7 @@
         <v>1855</v>
       </c>
       <c r="S82" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="T82" t="s">
         <v>1838</v>
@@ -15190,30 +15090,30 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>814</v>
+        <v>185</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>812</v>
+        <v>182</v>
       </c>
       <c r="D83">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E83" t="s">
-        <v>1718</v>
+        <v>1658</v>
       </c>
       <c r="F83" t="s">
-        <v>2029</v>
+        <v>1876</v>
       </c>
       <c r="G83" t="s">
-        <v>2014</v>
+        <v>1819</v>
       </c>
       <c r="H83" t="s">
-        <v>1939</v>
+        <v>1841</v>
       </c>
       <c r="I83" t="s">
         <v>1809</v>
@@ -15225,28 +15125,28 @@
         <v>1806</v>
       </c>
       <c r="L83" t="s">
-        <v>1812</v>
+        <v>1827</v>
       </c>
       <c r="M83" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N83" t="s">
         <v>1838</v>
       </c>
       <c r="O83" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P83" s="7">
-        <v>11764</v>
+        <v>37392</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R83" t="s">
-        <v>2031</v>
+        <v>2237</v>
       </c>
       <c r="S83" t="s">
-        <v>2030</v>
+        <v>2237</v>
       </c>
       <c r="T83" t="s">
         <v>1839</v>
@@ -15257,35 +15157,35 @@
       <c r="V83" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="W83" s="12">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="X83" s="12">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="Y83" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AA83" s="10">
-        <v>0.67300000000000004</v>
+      <c r="W83" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X83" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="Y83" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Z83" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA83" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="AB83" s="10">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="AC83" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AD83" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE83" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AF83" s="10" t="s">
-        <v>1806</v>
+        <v>0.87</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AF83">
+        <v>42</v>
       </c>
       <c r="AG83" t="s">
         <v>1839</v>
@@ -15300,13 +15200,13 @@
         <v>1859</v>
       </c>
       <c r="AK83">
-        <v>0.55000000000000004</v>
+        <v>1.244</v>
       </c>
       <c r="AL83">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>77</v>
       </c>
@@ -15323,10 +15223,10 @@
         <v>1719</v>
       </c>
       <c r="F84" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="G84" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H84" t="s">
         <v>1841</v>
@@ -15335,22 +15235,22 @@
         <v>1809</v>
       </c>
       <c r="J84" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="K84" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="L84" t="s">
         <v>1806</v>
       </c>
       <c r="M84" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N84" t="s">
         <v>1838</v>
       </c>
       <c r="O84" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="P84" s="7">
         <f>1800+1800*6</f>
@@ -15363,7 +15263,7 @@
         <v>1855</v>
       </c>
       <c r="S84" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="T84" t="s">
         <v>1838</v>
@@ -15411,19 +15311,19 @@
         <v>1839</v>
       </c>
       <c r="AI84" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ84" s="12" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK84">
         <v>1.6519999999999999</v>
       </c>
       <c r="AL84">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>78</v>
       </c>
@@ -15440,10 +15340,10 @@
         <v>1720</v>
       </c>
       <c r="F85" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G85" t="s">
         <v>2188</v>
-      </c>
-      <c r="G85" t="s">
-        <v>2189</v>
       </c>
       <c r="H85" t="s">
         <v>1841</v>
@@ -15452,7 +15352,7 @@
         <v>1811</v>
       </c>
       <c r="J85" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="K85" t="s">
         <v>1806</v>
@@ -15461,29 +15361,29 @@
         <v>1806</v>
       </c>
       <c r="M85" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="N85" t="s">
         <v>1839</v>
       </c>
       <c r="O85" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="P85" s="7">
         <f>(445+230)</f>
         <v>675</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R85" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="S85" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="T85" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U85" t="s">
         <v>1839</v>
@@ -15558,10 +15458,10 @@
         <v>1722</v>
       </c>
       <c r="F86" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="G86" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H86" t="s">
         <v>1841</v>
@@ -15570,22 +15470,22 @@
         <v>1809</v>
       </c>
       <c r="J86" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="K86" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1806</v>
+      </c>
+      <c r="M86" t="s">
         <v>2182</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1806</v>
-      </c>
-      <c r="M86" t="s">
-        <v>2183</v>
       </c>
       <c r="N86" t="s">
         <v>1838</v>
       </c>
       <c r="O86" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="P86" s="7">
         <f>(1122+900)/2</f>
@@ -15596,10 +15496,10 @@
         <v>1011</v>
       </c>
       <c r="R86" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="S86" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="T86" t="s">
         <v>1838</v>
@@ -15648,10 +15548,10 @@
         <v>1839</v>
       </c>
       <c r="AI86" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ86" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK86">
         <v>1.244</v>
@@ -15697,7 +15597,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="AM87" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN87" t="s">
         <v>1808</v>
@@ -15720,13 +15620,13 @@
         <v>1662</v>
       </c>
       <c r="F88" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G88" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H88" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="P88" s="7"/>
       <c r="R88"/>
@@ -15745,10 +15645,10 @@
         <v>1847</v>
       </c>
       <c r="AN88" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>83</v>
       </c>
@@ -15765,10 +15665,10 @@
         <v>1725</v>
       </c>
       <c r="F89" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="G89" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H89" t="s">
         <v>1841</v>
@@ -15777,7 +15677,7 @@
         <v>1809</v>
       </c>
       <c r="J89" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="K89" t="s">
         <v>1806</v>
@@ -15786,13 +15686,13 @@
         <v>1806</v>
       </c>
       <c r="M89" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N89" t="s">
         <v>1838</v>
       </c>
       <c r="O89" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="P89" s="7">
         <f>(3507+3600)/6</f>
@@ -15803,10 +15703,10 @@
         <v>300</v>
       </c>
       <c r="R89" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="S89" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="T89" t="s">
         <v>1839</v>
@@ -15866,7 +15766,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>84</v>
       </c>
@@ -15886,7 +15786,7 @@
         <v>1816</v>
       </c>
       <c r="G90" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H90" t="s">
         <v>1841</v>
@@ -15895,35 +15795,35 @@
         <v>1809</v>
       </c>
       <c r="J90" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="K90" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="L90" t="s">
         <v>1806</v>
       </c>
       <c r="M90" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N90" t="s">
         <v>1838</v>
       </c>
       <c r="O90" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="P90" s="7">
         <f>(3600+1200+1896+1124+2086+1130+1054)/4</f>
         <v>3022.5</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R90" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="S90" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="T90" t="s">
         <v>1838</v>
@@ -15971,10 +15871,10 @@
         <v>1839</v>
       </c>
       <c r="AI90" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ90" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK90">
         <v>0.9</v>
@@ -15985,25 +15885,25 @@
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>900</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>897</v>
+        <v>652</v>
+      </c>
+      <c r="C91" t="s">
+        <v>649</v>
       </c>
       <c r="D91">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E91" t="s">
-        <v>1727</v>
+        <v>1701</v>
       </c>
       <c r="F91" t="s">
-        <v>1990</v>
+        <v>1931</v>
       </c>
       <c r="G91" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H91" t="s">
         <v>1841</v>
@@ -16012,37 +15912,38 @@
         <v>1809</v>
       </c>
       <c r="J91" t="s">
-        <v>1813</v>
+        <v>1935</v>
       </c>
       <c r="K91" t="s">
         <v>1806</v>
       </c>
       <c r="L91" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
       <c r="M91" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N91" t="s">
         <v>1838</v>
       </c>
       <c r="O91" t="s">
-        <v>2238</v>
+        <v>1934</v>
       </c>
       <c r="P91" s="7">
-        <v>2161</v>
-      </c>
-      <c r="Q91" s="7" t="s">
-        <v>2238</v>
+        <f>309+2952+2261+858+1015+782</f>
+        <v>8177</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>1750</v>
       </c>
       <c r="R91" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="S91" t="s">
-        <v>1991</v>
+        <v>1857</v>
       </c>
       <c r="T91" t="s">
-        <v>1839</v>
+        <v>1932</v>
       </c>
       <c r="U91" t="s">
         <v>1839</v>
@@ -16051,34 +15952,34 @@
         <v>1806</v>
       </c>
       <c r="W91" s="10">
-        <v>0.91220000000000001</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="X91" s="10">
-        <v>0.94889999999999997</v>
-      </c>
-      <c r="Y91" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Z91" s="10">
-        <v>8.7800000000000003E-2</v>
-      </c>
-      <c r="AA91" s="10">
-        <v>0.85009999999999997</v>
-      </c>
-      <c r="AB91" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC91" s="10">
-        <v>0.92469999999999997</v>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="Y91" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AA91" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AB91" s="10">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AC91" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="AD91" t="s">
         <v>1806</v>
       </c>
-      <c r="AE91" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AF91">
-        <v>37</v>
+      <c r="AE91">
+        <v>205.1</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>1806</v>
       </c>
       <c r="AG91" t="s">
         <v>1839</v>
@@ -16093,10 +15994,10 @@
         <v>1859</v>
       </c>
       <c r="AK91">
-        <v>3.633</v>
+        <v>1.244</v>
       </c>
       <c r="AL91">
-        <v>23.3</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -16116,10 +16017,10 @@
         <v>1751</v>
       </c>
       <c r="F92" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="G92" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P92" s="7"/>
       <c r="R92"/>
@@ -16135,10 +16036,10 @@
         <v>7</v>
       </c>
       <c r="AM92" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="AN92" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="93" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -16178,33 +16079,33 @@
         <v>7.8</v>
       </c>
       <c r="AM93" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN93" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>925</v>
+        <v>710</v>
       </c>
       <c r="C94" t="s">
-        <v>923</v>
+        <v>705</v>
       </c>
       <c r="D94">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E94" t="s">
-        <v>1730</v>
+        <v>1707</v>
       </c>
       <c r="F94" t="s">
-        <v>1979</v>
+        <v>1852</v>
       </c>
       <c r="G94" t="s">
-        <v>1810</v>
+        <v>1853</v>
       </c>
       <c r="H94" t="s">
         <v>1841</v>
@@ -16219,74 +16120,74 @@
         <v>1806</v>
       </c>
       <c r="L94" t="s">
-        <v>1980</v>
+        <v>1825</v>
       </c>
       <c r="M94" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N94" t="s">
         <v>1838</v>
       </c>
       <c r="O94" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P94" s="7">
-        <v>1500</v>
-      </c>
-      <c r="Q94" s="7" t="s">
-        <v>2238</v>
+        <v>17885</v>
+      </c>
+      <c r="Q94" s="7">
+        <f>17885-4556</f>
+        <v>13329</v>
       </c>
       <c r="R94" t="s">
         <v>1855</v>
       </c>
       <c r="S94" t="s">
-        <v>1981</v>
+        <v>1857</v>
       </c>
       <c r="T94" t="s">
-        <v>1933</v>
+        <v>1839</v>
       </c>
       <c r="U94" t="s">
         <v>1839</v>
       </c>
       <c r="V94" s="10">
-        <v>0.999</v>
-      </c>
-      <c r="W94" s="10">
-        <v>0.997</v>
-      </c>
-      <c r="X94" s="10">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="Y94" s="10">
-        <v>0.997</v>
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="W94" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X94" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Y94" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="Z94" t="s">
         <v>1806</v>
       </c>
-      <c r="AA94" s="10">
-        <v>0.98499999999999999</v>
+      <c r="AA94" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="AB94" s="10">
-        <v>0.995</v>
-      </c>
-      <c r="AC94" s="10">
-        <v>0.98499999999999999</v>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>1806</v>
       </c>
       <c r="AD94" t="s">
         <v>1806</v>
       </c>
       <c r="AE94">
-        <v>256</v>
+        <v>4.2</v>
       </c>
       <c r="AF94">
-        <f>(0.141+1.398)/2*1000</f>
-        <v>769.5</v>
+        <v>3100</v>
       </c>
       <c r="AG94" t="s">
         <v>1839</v>
       </c>
       <c r="AH94" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="AI94" t="s">
         <v>1858</v>
@@ -16295,10 +16196,10 @@
         <v>1859</v>
       </c>
       <c r="AK94">
-        <v>1.6519999999999999</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="AL94">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="95" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -16318,10 +16219,10 @@
         <v>1763</v>
       </c>
       <c r="F95" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G95" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P95" s="7"/>
       <c r="R95"/>
@@ -16340,7 +16241,7 @@
         <v>1848</v>
       </c>
       <c r="AN95" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="96" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -16360,10 +16261,10 @@
         <v>1655</v>
       </c>
       <c r="F96" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="G96" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H96" t="s">
         <v>1808</v>
@@ -16382,7 +16283,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AM96" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN96" t="s">
         <v>1808</v>
@@ -16405,10 +16306,10 @@
         <v>1767</v>
       </c>
       <c r="F97" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G97" t="s">
         <v>1951</v>
-      </c>
-      <c r="G97" t="s">
-        <v>1952</v>
       </c>
       <c r="P97" s="7"/>
       <c r="R97"/>
@@ -16424,10 +16325,10 @@
         <v>6.1</v>
       </c>
       <c r="AM97" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="AN97" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="98" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -16447,10 +16348,10 @@
         <v>1750</v>
       </c>
       <c r="F98" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="G98" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="P98" s="7"/>
       <c r="R98"/>
@@ -16469,30 +16370,30 @@
         <v>1848</v>
       </c>
       <c r="AN98" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="99" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>934</v>
-      </c>
-      <c r="C99" t="s">
-        <v>931</v>
+        <v>357</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="D99">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E99" t="s">
-        <v>1731</v>
+        <v>1674</v>
       </c>
       <c r="F99" t="s">
-        <v>1957</v>
+        <v>2190</v>
       </c>
       <c r="G99" t="s">
-        <v>1810</v>
+        <v>1860</v>
       </c>
       <c r="H99" t="s">
         <v>1841</v>
@@ -16501,92 +16402,91 @@
         <v>1809</v>
       </c>
       <c r="J99" t="s">
-        <v>1958</v>
+        <v>2309</v>
       </c>
       <c r="K99" t="s">
         <v>1806</v>
       </c>
       <c r="L99" t="s">
-        <v>1806</v>
+        <v>2191</v>
       </c>
       <c r="M99" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N99" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="O99" t="s">
-        <v>2238</v>
+        <v>1806</v>
       </c>
       <c r="P99" s="7">
-        <v>88897</v>
+        <v>4730</v>
       </c>
       <c r="Q99" s="7">
-        <v>4912</v>
+        <v>4730</v>
       </c>
       <c r="R99" t="s">
-        <v>1855</v>
+        <v>2192</v>
       </c>
       <c r="S99" t="s">
-        <v>1882</v>
+        <v>1857</v>
       </c>
       <c r="T99" t="s">
-        <v>1839</v>
+        <v>1932</v>
       </c>
       <c r="U99" t="s">
         <v>1839</v>
       </c>
-      <c r="V99" s="10">
-        <v>0.97330000000000005</v>
-      </c>
-      <c r="W99" s="10">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="X99" s="10">
-        <v>0.95479999999999998</v>
-      </c>
-      <c r="Y99" s="10">
-        <v>0.95789999999999997</v>
-      </c>
-      <c r="Z99" s="9" t="s">
+      <c r="V99" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="W99" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X99" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Y99" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Z99" s="10" t="s">
         <v>1806</v>
       </c>
       <c r="AA99" s="10">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="AB99" s="9" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC99" s="9" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AD99" s="9" t="s">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="AB99" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="AC99" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AD99" s="10" t="s">
         <v>1806</v>
       </c>
       <c r="AE99">
-        <v>8.51</v>
-      </c>
-      <c r="AF99">
-        <f>0.1175*1000</f>
-        <v>117.5</v>
+        <v>52</v>
+      </c>
+      <c r="AF99" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="AG99" t="s">
         <v>1839</v>
       </c>
       <c r="AH99" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="AI99" t="s">
         <v>1858</v>
       </c>
       <c r="AJ99" t="s">
-        <v>1959</v>
+        <v>1859</v>
       </c>
       <c r="AK99">
-        <v>1.8540000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AL99">
-        <v>13.8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="100" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -16606,10 +16506,10 @@
         <v>1692</v>
       </c>
       <c r="F100" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G100" t="s">
         <v>2083</v>
-      </c>
-      <c r="G100" t="s">
-        <v>2084</v>
       </c>
       <c r="P100" s="7"/>
       <c r="R100"/>
@@ -16628,7 +16528,7 @@
         <v>1846</v>
       </c>
       <c r="AN100" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="101" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -16668,13 +16568,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AM101" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN101" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>91</v>
       </c>
@@ -16691,10 +16591,10 @@
         <v>1733</v>
       </c>
       <c r="F102" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="G102" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H102" t="s">
         <v>1841</v>
@@ -16703,7 +16603,7 @@
         <v>1809</v>
       </c>
       <c r="J102" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="K102" t="s">
         <v>1806</v>
@@ -16712,7 +16612,7 @@
         <v>1806</v>
       </c>
       <c r="M102" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N102" t="s">
         <v>1839</v>
@@ -16724,13 +16624,13 @@
         <v>278</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R102" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="S102" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="T102" t="s">
         <v>1839</v>
@@ -16779,10 +16679,10 @@
         <v>1839</v>
       </c>
       <c r="AI102" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ102" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK102">
         <v>0.32800000000000001</v>
@@ -16791,7 +16691,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>92</v>
       </c>
@@ -16808,10 +16708,10 @@
         <v>1734</v>
       </c>
       <c r="F103" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G103" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H103" t="s">
         <v>1841</v>
@@ -16829,7 +16729,7 @@
         <v>1827</v>
       </c>
       <c r="M103" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N103" t="s">
         <v>1838</v>
@@ -16842,10 +16742,10 @@
         <v>4240</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R103" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="S103" t="s">
         <v>1857</v>
@@ -16908,7 +16808,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>94</v>
       </c>
@@ -16925,7 +16825,7 @@
         <v>1736</v>
       </c>
       <c r="F104" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G104" t="s">
         <v>1810</v>
@@ -16937,7 +16837,7 @@
         <v>1809</v>
       </c>
       <c r="J104" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K104" t="s">
         <v>1868</v>
@@ -16946,13 +16846,13 @@
         <v>1806</v>
       </c>
       <c r="M104" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N104" t="s">
         <v>1838</v>
       </c>
       <c r="O104" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P104" s="7">
         <v>6000</v>
@@ -16964,7 +16864,7 @@
         <v>1855</v>
       </c>
       <c r="S104" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="T104" t="s">
         <v>1839</v>
@@ -17012,10 +16912,10 @@
         <v>1839</v>
       </c>
       <c r="AI104" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ104" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK104">
         <v>0.55000000000000004</v>
@@ -17058,13 +16958,13 @@
         <v>5.4</v>
       </c>
       <c r="AM105" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="AN105" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>96</v>
       </c>
@@ -17081,10 +16981,10 @@
         <v>1738</v>
       </c>
       <c r="F106" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="G106" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H106" t="s">
         <v>1841</v>
@@ -17102,7 +17002,7 @@
         <v>1806</v>
       </c>
       <c r="M106" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N106" t="s">
         <v>1838</v>
@@ -17120,7 +17020,7 @@
         <v>1855</v>
       </c>
       <c r="S106" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="T106" t="s">
         <v>1838</v>
@@ -17180,7 +17080,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>97</v>
       </c>
@@ -17197,10 +17097,10 @@
         <v>1739</v>
       </c>
       <c r="F107" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="G107" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H107" t="s">
         <v>1841</v>
@@ -17209,7 +17109,7 @@
         <v>1809</v>
       </c>
       <c r="J107" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="K107" t="s">
         <v>1868</v>
@@ -17218,13 +17118,13 @@
         <v>1806</v>
       </c>
       <c r="M107" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N107" t="s">
         <v>1838</v>
       </c>
       <c r="O107" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="P107" s="7">
         <f>5*1569</f>
@@ -17234,7 +17134,7 @@
         <v>1569</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="S107" t="s">
         <v>1857</v>
@@ -17286,10 +17186,10 @@
         <v>1839</v>
       </c>
       <c r="AI107" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ107" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK107">
         <v>0.68600000000000005</v>
@@ -17335,7 +17235,7 @@
         <v>5.4</v>
       </c>
       <c r="AM108" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN108" t="s">
         <v>1808</v>
@@ -17358,10 +17258,10 @@
         <v>1778</v>
       </c>
       <c r="F109" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G109" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P109" s="7"/>
       <c r="R109"/>
@@ -17380,7 +17280,7 @@
         <v>1848</v>
       </c>
       <c r="AN109" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="110" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -17400,7 +17300,7 @@
         <v>1744</v>
       </c>
       <c r="F110" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G110" t="s">
         <v>1818</v>
@@ -17419,10 +17319,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AM110" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="AN110" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="111" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -17442,7 +17342,7 @@
         <v>1768</v>
       </c>
       <c r="F111" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="G111" t="s">
         <v>1817</v>
@@ -17464,7 +17364,7 @@
         <v>1848</v>
       </c>
       <c r="AN111" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="112" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -17504,7 +17404,7 @@
         <v>9.1</v>
       </c>
       <c r="AM112" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN112" t="s">
         <v>1808</v>
@@ -17527,10 +17427,10 @@
         <v>1753</v>
       </c>
       <c r="F113" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G113" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="P113" s="7"/>
       <c r="R113"/>
@@ -17549,7 +17449,7 @@
         <v>1846</v>
       </c>
       <c r="AN113" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="114" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -17569,10 +17469,10 @@
         <v>1713</v>
       </c>
       <c r="F114" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G114" t="s">
         <v>2099</v>
-      </c>
-      <c r="G114" t="s">
-        <v>2100</v>
       </c>
       <c r="P114" s="7"/>
       <c r="R114"/>
@@ -17591,30 +17491,30 @@
         <v>1846</v>
       </c>
       <c r="AN114" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1022</v>
+        <v>109</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E115" t="s">
-        <v>1740</v>
+        <v>1651</v>
       </c>
       <c r="F115" t="s">
-        <v>1865</v>
+        <v>2014</v>
       </c>
       <c r="G115" t="s">
-        <v>1866</v>
+        <v>2252</v>
       </c>
       <c r="H115" t="s">
         <v>1841</v>
@@ -17623,34 +17523,34 @@
         <v>1809</v>
       </c>
       <c r="J115" t="s">
-        <v>1867</v>
+        <v>1813</v>
       </c>
       <c r="K115" t="s">
-        <v>1868</v>
+        <v>1806</v>
       </c>
       <c r="L115" t="s">
-        <v>1806</v>
+        <v>2015</v>
       </c>
       <c r="M115" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N115" t="s">
         <v>1838</v>
       </c>
       <c r="O115" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P115" s="7">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="Q115" s="7" t="s">
-        <v>2238</v>
-      </c>
-      <c r="R115" t="s">
-        <v>1869</v>
+        <v>2237</v>
+      </c>
+      <c r="R115" s="7" t="s">
+        <v>2016</v>
       </c>
       <c r="S115" t="s">
-        <v>1870</v>
+        <v>2237</v>
       </c>
       <c r="T115" t="s">
         <v>1839</v>
@@ -17658,37 +17558,37 @@
       <c r="U115" t="s">
         <v>1839</v>
       </c>
-      <c r="V115" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="W115" t="s">
-        <v>1806</v>
-      </c>
-      <c r="X115" t="s">
+      <c r="V115" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="W115" s="12" t="s">
+        <v>1806</v>
+      </c>
+      <c r="X115" s="12" t="s">
         <v>1806</v>
       </c>
       <c r="Y115" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="Z115" t="s">
+      <c r="Z115" s="12" t="s">
         <v>1806</v>
       </c>
       <c r="AA115" s="10">
-        <v>0.86780000000000002</v>
-      </c>
-      <c r="AB115" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AD115" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>1806</v>
-      </c>
-      <c r="AF115" t="s">
+        <v>0.85</v>
+      </c>
+      <c r="AB115" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="AC115" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AD115" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AE115" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AF115" s="10" t="s">
         <v>1806</v>
       </c>
       <c r="AG115" t="s">
@@ -17698,16 +17598,16 @@
         <v>1839</v>
       </c>
       <c r="AI115" t="s">
-        <v>2238</v>
+        <v>1858</v>
       </c>
       <c r="AJ115" t="s">
-        <v>2238</v>
+        <v>1859</v>
       </c>
       <c r="AK115">
-        <v>1.6359999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AL115">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="116" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -17727,10 +17627,10 @@
         <v>1781</v>
       </c>
       <c r="F116" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G116" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P116" s="7"/>
       <c r="R116"/>
@@ -17746,10 +17646,10 @@
         <v>5.6</v>
       </c>
       <c r="AM116" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="AN116" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="117" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -17769,10 +17669,10 @@
         <v>1760</v>
       </c>
       <c r="F117" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G117" t="s">
         <v>2141</v>
-      </c>
-      <c r="G117" t="s">
-        <v>2142</v>
       </c>
       <c r="P117" s="7"/>
       <c r="R117"/>
@@ -17791,68 +17691,66 @@
         <v>1846</v>
       </c>
       <c r="AN117" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B118" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1033</v>
+        <v>814</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>812</v>
       </c>
       <c r="D118">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E118" t="s">
-        <v>1741</v>
+        <v>1718</v>
       </c>
       <c r="F118" t="s">
-        <v>2066</v>
+        <v>2028</v>
       </c>
       <c r="G118" t="s">
-        <v>2067</v>
+        <v>2013</v>
       </c>
       <c r="H118" t="s">
-        <v>1841</v>
+        <v>1938</v>
       </c>
       <c r="I118" t="s">
         <v>1809</v>
       </c>
       <c r="J118" t="s">
-        <v>1965</v>
+        <v>1813</v>
       </c>
       <c r="K118" t="s">
-        <v>1830</v>
+        <v>1806</v>
       </c>
       <c r="L118" t="s">
-        <v>1806</v>
+        <v>1812</v>
       </c>
       <c r="M118" t="s">
-        <v>2144</v>
+        <v>1946</v>
       </c>
       <c r="N118" t="s">
-        <v>2238</v>
+        <v>1838</v>
       </c>
       <c r="O118" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="P118" s="7">
-        <f>1200+600</f>
-        <v>1800</v>
-      </c>
-      <c r="Q118" s="7">
-        <f>1200+300</f>
-        <v>1500</v>
+        <v>11764</v>
+      </c>
+      <c r="Q118" s="7" t="s">
+        <v>2237</v>
       </c>
       <c r="R118" t="s">
-        <v>2068</v>
+        <v>2030</v>
       </c>
       <c r="S118" t="s">
-        <v>2238</v>
+        <v>2029</v>
       </c>
       <c r="T118" t="s">
         <v>1839</v>
@@ -17863,23 +17761,23 @@
       <c r="V118" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="W118" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="X118" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Y118" s="10" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Z118" s="10" t="s">
+      <c r="W118" s="12">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="X118" s="12">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="Y118" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="Z118" t="s">
         <v>1806</v>
       </c>
       <c r="AA118" s="10">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="AB118" s="10" t="s">
-        <v>1806</v>
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="AB118" s="10">
+        <v>0.97699999999999998</v>
       </c>
       <c r="AC118" s="10" t="s">
         <v>1806</v>
@@ -17887,10 +17785,10 @@
       <c r="AD118" s="10" t="s">
         <v>1806</v>
       </c>
-      <c r="AE118">
-        <v>22.1</v>
-      </c>
-      <c r="AF118" t="s">
+      <c r="AE118" s="10" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AF118" s="10" t="s">
         <v>1806</v>
       </c>
       <c r="AG118" t="s">
@@ -17906,10 +17804,10 @@
         <v>1859</v>
       </c>
       <c r="AK118">
-        <v>2.4449999999999998</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AL118">
-        <v>21</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="119" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -17929,7 +17827,7 @@
         <v>1679</v>
       </c>
       <c r="F119" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="G119" t="s">
         <v>1817</v>
@@ -17948,13 +17846,13 @@
         <v>8.5</v>
       </c>
       <c r="AM119" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="AN119" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>104</v>
       </c>
@@ -17971,7 +17869,7 @@
         <v>1746</v>
       </c>
       <c r="F120" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G120" t="s">
         <v>1815</v>
@@ -17986,13 +17884,13 @@
         <v>1813</v>
       </c>
       <c r="K120" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="L120" t="s">
         <v>1806</v>
       </c>
       <c r="M120" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N120" t="s">
         <v>1838</v>
@@ -18004,10 +17902,10 @@
         <v>16905</v>
       </c>
       <c r="R120" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="S120" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="T120" t="s">
         <v>1839</v>
@@ -18049,7 +17947,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AG120" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="AH120" t="s">
         <v>1839</v>
@@ -18067,7 +17965,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>115</v>
       </c>
@@ -18084,10 +17982,10 @@
         <v>1757</v>
       </c>
       <c r="F121" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G121" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H121" t="s">
         <v>1841</v>
@@ -18105,13 +18003,13 @@
         <v>1827</v>
       </c>
       <c r="M121" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N121" t="s">
         <v>1838</v>
       </c>
       <c r="O121" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="P121" s="7">
         <v>1680</v>
@@ -18120,13 +18018,13 @@
         <v>1680</v>
       </c>
       <c r="R121" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="S121" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="T121" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U121" t="s">
         <v>1839</v>
@@ -18200,10 +18098,10 @@
         <v>1708</v>
       </c>
       <c r="F122" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G122" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H122" t="s">
         <v>1841</v>
@@ -18212,16 +18110,16 @@
         <v>1811</v>
       </c>
       <c r="J122" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K122" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="N122" t="s">
         <v>1839</v>
       </c>
       <c r="O122" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P122" s="7">
         <v>3601</v>
@@ -18230,10 +18128,10 @@
         <v>1806</v>
       </c>
       <c r="R122" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="S122" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="T122" t="s">
         <v>1839</v>
@@ -18253,18 +18151,18 @@
         <v>3.1</v>
       </c>
       <c r="AM122" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AN122" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C123" t="s">
         <v>1219</v>
@@ -18276,13 +18174,13 @@
         <v>1759</v>
       </c>
       <c r="F123" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="G123" t="s">
         <v>1860</v>
       </c>
       <c r="H123" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="I123" t="s">
         <v>1809</v>
@@ -18291,13 +18189,13 @@
         <v>1813</v>
       </c>
       <c r="K123" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="L123" t="s">
         <v>1806</v>
       </c>
       <c r="M123" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N123" t="s">
         <v>1838</v>
@@ -18309,13 +18207,13 @@
         <v>3518</v>
       </c>
       <c r="Q123" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R123" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S123" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="T123" t="s">
         <v>1839</v>
@@ -18363,10 +18261,10 @@
         <v>1839</v>
       </c>
       <c r="AI123" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ123" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK123">
         <v>0.32800000000000001</v>
@@ -18412,7 +18310,7 @@
         <v>1846</v>
       </c>
       <c r="AN124" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="125" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18432,10 +18330,10 @@
         <v>1669</v>
       </c>
       <c r="F125" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G125" t="s">
         <v>1960</v>
-      </c>
-      <c r="G125" t="s">
-        <v>1961</v>
       </c>
       <c r="P125" s="7"/>
       <c r="R125"/>
@@ -18454,7 +18352,7 @@
         <v>1848</v>
       </c>
       <c r="AN125" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="126" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18474,10 +18372,10 @@
         <v>1702</v>
       </c>
       <c r="F126" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G126" t="s">
         <v>1904</v>
-      </c>
-      <c r="G126" t="s">
-        <v>1905</v>
       </c>
       <c r="K126" t="s">
         <v>1834</v>
@@ -18502,7 +18400,7 @@
         <v>1846</v>
       </c>
       <c r="AN126" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="127" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18522,7 +18420,7 @@
         <v>1665</v>
       </c>
       <c r="F127" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="G127" t="s">
         <v>1821</v>
@@ -18544,7 +18442,7 @@
         <v>1851</v>
       </c>
       <c r="AN127" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="128" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18589,7 +18487,7 @@
         <v>1846</v>
       </c>
       <c r="AN128" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="129" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18671,7 +18569,7 @@
         <v>1846</v>
       </c>
       <c r="AN130" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="131" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18691,19 +18589,19 @@
         <v>1798</v>
       </c>
       <c r="F131" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G131" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H131" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="I131" t="s">
         <v>1811</v>
       </c>
       <c r="J131" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="P131" s="7"/>
       <c r="R131"/>
@@ -18722,7 +18620,7 @@
         <v>1846</v>
       </c>
       <c r="AN131" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="132" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18746,7 +18644,7 @@
         <v/>
       </c>
       <c r="H132" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="P132" s="7"/>
       <c r="R132"/>
@@ -18762,10 +18660,10 @@
         <v>3.8</v>
       </c>
       <c r="AM132" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN132" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="133" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18785,7 +18683,7 @@
         <v>1742</v>
       </c>
       <c r="F133" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G133" t="s">
         <v>1860</v>
@@ -18800,28 +18698,28 @@
         <v>1813</v>
       </c>
       <c r="K133" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="M133" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N133" t="s">
         <v>1838</v>
       </c>
       <c r="O133" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="P133" s="7">
         <v>1000</v>
       </c>
       <c r="Q133" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R133" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S133" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="T133" t="s">
         <v>1839</v>
@@ -18861,13 +18759,13 @@
         <v>1806</v>
       </c>
       <c r="AH133" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="AI133" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ133" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK133">
         <v>0.55000000000000004</v>
@@ -18876,10 +18774,10 @@
         <v>3.8</v>
       </c>
       <c r="AM133" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AN133" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="134" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -18903,7 +18801,7 @@
         <v/>
       </c>
       <c r="H134" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="P134" s="7"/>
       <c r="R134"/>
@@ -18919,10 +18817,10 @@
         <v>3.8</v>
       </c>
       <c r="AM134" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN134" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.3">
@@ -18942,10 +18840,10 @@
         <v>1764</v>
       </c>
       <c r="F135" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G135" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H135" t="s">
         <v>1841</v>
@@ -18954,7 +18852,7 @@
         <v>1809</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="K135" t="s">
         <v>1806</v>
@@ -18963,13 +18861,13 @@
         <v>1806</v>
       </c>
       <c r="M135" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N135" t="s">
         <v>1839</v>
       </c>
       <c r="O135" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P135" s="7">
         <v>300</v>
@@ -18978,13 +18876,13 @@
         <v>110</v>
       </c>
       <c r="R135" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="S135" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="T135" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U135" t="s">
         <v>1839</v>
@@ -19017,7 +18915,7 @@
         <v>1806</v>
       </c>
       <c r="AD135" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="AE135" t="s">
         <v>1806</v>
@@ -19044,7 +18942,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>127</v>
       </c>
@@ -19061,10 +18959,10 @@
         <v>1769</v>
       </c>
       <c r="F136" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G136" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H136" t="s">
         <v>1841</v>
@@ -19073,7 +18971,7 @@
         <v>1809</v>
       </c>
       <c r="J136" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="K136" t="s">
         <v>1806</v>
@@ -19082,26 +18980,26 @@
         <v>1806</v>
       </c>
       <c r="M136" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N136" t="s">
         <v>1838</v>
       </c>
       <c r="O136" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P136" s="7">
         <f>(39592+127832)/2</f>
         <v>83712</v>
       </c>
       <c r="Q136" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R136" t="s">
         <v>1855</v>
       </c>
       <c r="S136" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="T136" t="s">
         <v>1839</v>
@@ -19162,7 +19060,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>128</v>
       </c>
@@ -19191,7 +19089,7 @@
         <v>1809</v>
       </c>
       <c r="J137" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="K137" t="s">
         <v>1806</v>
@@ -19200,13 +19098,13 @@
         <v>1806</v>
       </c>
       <c r="M137" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N137" t="s">
         <v>1838</v>
       </c>
       <c r="O137" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="P137" s="7">
         <f>(400+2400)/2</f>
@@ -19217,10 +19115,10 @@
         <v>700</v>
       </c>
       <c r="R137" t="s">
+        <v>2199</v>
+      </c>
+      <c r="S137" t="s">
         <v>2200</v>
-      </c>
-      <c r="S137" t="s">
-        <v>2201</v>
       </c>
       <c r="T137" t="s">
         <v>1839</v>
@@ -19281,7 +19179,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>131</v>
       </c>
@@ -19298,10 +19196,10 @@
         <v>1773</v>
       </c>
       <c r="F138" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G138" t="s">
         <v>2005</v>
-      </c>
-      <c r="G138" t="s">
-        <v>2006</v>
       </c>
       <c r="H138" t="s">
         <v>1841</v>
@@ -19310,7 +19208,7 @@
         <v>1809</v>
       </c>
       <c r="J138" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K138" t="s">
         <v>1806</v>
@@ -19319,13 +19217,13 @@
         <v>1806</v>
       </c>
       <c r="M138" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N138" t="s">
         <v>1838</v>
       </c>
       <c r="O138" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="P138" s="7">
         <v>537</v>
@@ -19335,16 +19233,16 @@
         <v>19.009800000000002</v>
       </c>
       <c r="R138" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="S138" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="T138" t="s">
         <v>1838</v>
       </c>
       <c r="U138" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="V138" s="10">
         <v>0.98829999999999996</v>
@@ -19386,10 +19284,10 @@
         <v>1839</v>
       </c>
       <c r="AI138" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ138" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK138">
         <v>0.60799999999999998</v>
@@ -19398,7 +19296,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>140</v>
       </c>
@@ -19415,10 +19313,10 @@
         <v>1782</v>
       </c>
       <c r="F139" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G139" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="H139" t="s">
         <v>1841</v>
@@ -19430,31 +19328,31 @@
         <v>1813</v>
       </c>
       <c r="K139" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="L139" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M139" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N139" t="s">
         <v>1838</v>
       </c>
       <c r="O139" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P139" s="7">
         <v>1200</v>
       </c>
       <c r="Q139" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R139" t="s">
         <v>1855</v>
       </c>
       <c r="S139" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="T139" t="s">
         <v>1839</v>
@@ -19496,7 +19394,7 @@
         <v>1806</v>
       </c>
       <c r="AG139" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="AH139" t="s">
         <v>1838</v>
@@ -19531,10 +19429,10 @@
         <v>1684</v>
       </c>
       <c r="F140" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G140" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H140" t="s">
         <v>1841</v>
@@ -19546,28 +19444,28 @@
         <v>1813</v>
       </c>
       <c r="K140" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="M140" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N140" t="s">
         <v>1838</v>
       </c>
       <c r="O140" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P140" s="7">
         <v>1100</v>
       </c>
       <c r="Q140" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R140" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S140" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="V140" s="10"/>
       <c r="W140" s="12"/>
@@ -19581,13 +19479,13 @@
         <v>3.8</v>
       </c>
       <c r="AM140" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="AN140" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>143</v>
       </c>
@@ -19604,19 +19502,19 @@
         <v>1785</v>
       </c>
       <c r="F141" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G141" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="H141" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="I141" t="s">
         <v>1809</v>
       </c>
       <c r="J141" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="K141" t="s">
         <v>1806</v>
@@ -19625,25 +19523,25 @@
         <v>1806</v>
       </c>
       <c r="M141" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N141" t="s">
         <v>1839</v>
       </c>
       <c r="O141" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P141" s="7">
         <v>1299200</v>
       </c>
       <c r="Q141" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R141" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="S141" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="T141" t="s">
         <v>1838</v>
@@ -19691,10 +19589,10 @@
         <v>1839</v>
       </c>
       <c r="AI141" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ141" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK141">
         <v>1.1930000000000001</v>
@@ -19740,7 +19638,7 @@
         <v>3.8</v>
       </c>
       <c r="AM142" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN142" t="s">
         <v>1808</v>
@@ -19763,7 +19661,7 @@
         <v>1705</v>
       </c>
       <c r="F143" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="G143" t="s">
         <v>1818</v>
@@ -19785,7 +19683,7 @@
         <v>1847</v>
       </c>
       <c r="AN143" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="144" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -19825,13 +19723,13 @@
         <v>1806</v>
       </c>
       <c r="AM144" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN144" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -19848,10 +19746,10 @@
         <v>1787</v>
       </c>
       <c r="F145" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G145" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H145" t="s">
         <v>1841</v>
@@ -19869,25 +19767,25 @@
         <v>1806</v>
       </c>
       <c r="M145" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N145" t="s">
         <v>1839</v>
       </c>
       <c r="O145" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="P145" s="7">
         <v>2426</v>
       </c>
       <c r="Q145" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R145" t="s">
         <v>1855</v>
       </c>
       <c r="S145" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="T145" t="s">
         <v>1838</v>
@@ -19938,10 +19836,10 @@
         <v>1839</v>
       </c>
       <c r="AI145" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ145" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK145">
         <v>2.2109999999999999</v>
@@ -19950,7 +19848,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>147</v>
       </c>
@@ -19967,10 +19865,10 @@
         <v>1789</v>
       </c>
       <c r="F146" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G146" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H146" t="s">
         <v>1841</v>
@@ -19982,13 +19880,13 @@
         <v>1813</v>
       </c>
       <c r="K146" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="L146" t="s">
         <v>1806</v>
       </c>
       <c r="M146" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="N146" t="s">
         <v>1838</v>
@@ -20002,13 +19900,13 @@
         <v>68.5</v>
       </c>
       <c r="R146" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S146" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="T146" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="U146" t="s">
         <v>1839</v>
@@ -20054,10 +19952,10 @@
         <v>1839</v>
       </c>
       <c r="AI146" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ146" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK146">
         <v>0.90500000000000003</v>
@@ -20083,10 +19981,10 @@
         <v>1644</v>
       </c>
       <c r="F147" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G147" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="P147" s="7"/>
       <c r="R147"/>
@@ -20102,10 +20000,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AM147" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="AN147" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="148" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -20125,7 +20023,7 @@
         <v>1790</v>
       </c>
       <c r="F148" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G148" t="s">
         <v>1816</v>
@@ -20144,10 +20042,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AM148" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="AN148" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="149" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -20187,7 +20085,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AM149" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN149" t="s">
         <v>1808</v>
@@ -20210,7 +20108,7 @@
         <v>1794</v>
       </c>
       <c r="F150" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G150" t="s">
         <v>1821</v>
@@ -20234,10 +20132,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AM150" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="AN150" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="151" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -20274,7 +20172,7 @@
         <v>1806</v>
       </c>
       <c r="AM151" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="AN151" t="s">
         <v>1807</v>
@@ -20304,7 +20202,7 @@
         <v>1813</v>
       </c>
       <c r="K152" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="P152" s="7"/>
       <c r="R152"/>
@@ -20325,7 +20223,7 @@
         <v>1851</v>
       </c>
       <c r="AN152" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="153" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -20365,7 +20263,7 @@
         <v>1.7</v>
       </c>
       <c r="AM153" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN153" t="s">
         <v>1808</v>
@@ -20392,7 +20290,7 @@
         <v/>
       </c>
       <c r="H154" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="P154" s="7"/>
       <c r="R154"/>
@@ -20408,10 +20306,10 @@
         <v>1.7</v>
       </c>
       <c r="AM154" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN154" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="155" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -20431,10 +20329,10 @@
         <v>1645</v>
       </c>
       <c r="F155" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G155" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H155" t="s">
         <v>1841</v>
@@ -20446,16 +20344,16 @@
         <v>1813</v>
       </c>
       <c r="K155" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="M155" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N155" t="s">
         <v>1838</v>
       </c>
       <c r="O155" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P155" s="7">
         <v>2500</v>
@@ -20467,7 +20365,7 @@
         <v>1855</v>
       </c>
       <c r="S155" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="T155" t="s">
         <v>1839</v>
@@ -20524,7 +20422,7 @@
         <v>1851</v>
       </c>
       <c r="AN155" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="156" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -20544,10 +20442,10 @@
         <v>1771</v>
       </c>
       <c r="F156" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G156" t="s">
         <v>2135</v>
-      </c>
-      <c r="G156" t="s">
-        <v>2136</v>
       </c>
       <c r="P156" s="7"/>
       <c r="R156"/>
@@ -20563,10 +20461,10 @@
         <v>1.7</v>
       </c>
       <c r="AM156" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="AN156" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="157" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -20590,7 +20488,7 @@
         <v/>
       </c>
       <c r="H157" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="P157" s="7"/>
       <c r="R157"/>
@@ -20606,10 +20504,10 @@
         <v>1.7</v>
       </c>
       <c r="AM157" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN157" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="158" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
@@ -20629,10 +20527,10 @@
         <v>1748</v>
       </c>
       <c r="F158" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G158" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="P158" s="7"/>
       <c r="R158"/>
@@ -20651,10 +20549,10 @@
         <v>1848</v>
       </c>
       <c r="AN158" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.3">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>153</v>
       </c>
@@ -20671,10 +20569,10 @@
         <v>1795</v>
       </c>
       <c r="F159" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="G159" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="H159" t="s">
         <v>1841</v>
@@ -20686,13 +20584,13 @@
         <v>1833</v>
       </c>
       <c r="K159" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="L159" t="s">
         <v>1806</v>
       </c>
       <c r="M159" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="N159" t="s">
         <v>1838</v>
@@ -20704,13 +20602,13 @@
         <v>80</v>
       </c>
       <c r="Q159" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="R159" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="S159" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="T159" t="s">
         <v>1839</v>
@@ -20758,10 +20656,10 @@
         <v>1839</v>
       </c>
       <c r="AI159" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AJ159" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AK159">
         <v>0.97099999999999997</v>
@@ -20770,7 +20668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:40" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>154</v>
       </c>
@@ -20787,7 +20685,7 @@
         <v>1796</v>
       </c>
       <c r="F160" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="G160" t="s">
         <v>1817</v>
@@ -20808,13 +20706,13 @@
         <v>1806</v>
       </c>
       <c r="M160" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="N160" t="s">
         <v>1838</v>
       </c>
       <c r="O160" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="P160" s="7">
         <v>30000</v>
@@ -20823,10 +20721,10 @@
         <v>15000</v>
       </c>
       <c r="R160" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S160" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="T160" t="s">
         <v>1839</v>
@@ -20920,7 +20818,7 @@
         <v>1806</v>
       </c>
       <c r="AM161" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="AN161" t="s">
         <v>1807</v>
@@ -20947,7 +20845,7 @@
         <v/>
       </c>
       <c r="H162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="P162" s="7"/>
       <c r="R162"/>
@@ -20963,10 +20861,10 @@
         <v>3.1</v>
       </c>
       <c r="AM162" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="AN162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
   </sheetData>
@@ -20981,52 +20879,52 @@
     <cfRule type="expression" priority="7">
       <formula>ISBLANK($AM3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>NOT(ISBLANK($AM3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AK130 AK132:AK162">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>AND(ISNUMBER($AK3),$AK3&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK131">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(ISNUMBER($M131),$M131&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK131:AL131">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{340B1F4D-1F5F-476A-A68B-FB617F634BF2}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{FF450F1C-2B2D-44C6-BF71-A8E41E0C2BCA}"/>
+    <hyperlink ref="C80" r:id="rId1" xr:uid="{340B1F4D-1F5F-476A-A68B-FB617F634BF2}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{FF450F1C-2B2D-44C6-BF71-A8E41E0C2BCA}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{E20596B6-2EBB-4B43-BD60-D5546235B7DD}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{F2F2E884-F98B-4993-B87A-6102FD2D6164}"/>
     <hyperlink ref="C162" r:id="rId5" xr:uid="{197E0D00-ECE4-41EC-837E-D0A65EF1EB06}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{CFEEE171-7A26-4801-80EA-9E69763EB471}"/>
+    <hyperlink ref="C115" r:id="rId6" xr:uid="{CFEEE171-7A26-4801-80EA-9E69763EB471}"/>
     <hyperlink ref="C23" r:id="rId7" xr:uid="{19E8C6A7-460F-40F5-A664-6A2035D91B01}"/>
     <hyperlink ref="C96" r:id="rId8" xr:uid="{7DE73D9D-A4E8-4C67-B6D4-307F192FB1E4}"/>
     <hyperlink ref="C24" r:id="rId9" xr:uid="{393A006E-21C8-408B-B0B8-AA6D35FD291C}"/>
     <hyperlink ref="C76" r:id="rId10" xr:uid="{45EB9E35-1FAE-42DB-AA4B-4D680925871C}"/>
-    <hyperlink ref="C25" r:id="rId11" xr:uid="{7C2C9713-7F53-4713-AE6B-D258EE88F382}"/>
+    <hyperlink ref="C83" r:id="rId11" xr:uid="{7C2C9713-7F53-4713-AE6B-D258EE88F382}"/>
     <hyperlink ref="C26" r:id="rId12" xr:uid="{843C5F2C-D8B8-4C2E-9C61-A4FDB5251711}"/>
     <hyperlink ref="C20" r:id="rId13" xr:uid="{EAA40C4F-C728-4CEA-9A3E-FB963BF6074F}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{59DCBE46-EC3C-465F-9066-D13873CE910E}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{59DCBE46-EC3C-465F-9066-D13873CE910E}"/>
     <hyperlink ref="C11" r:id="rId15" xr:uid="{97BE5E01-988E-4A29-B23B-BBCBCEE22F5B}"/>
     <hyperlink ref="C154" r:id="rId16" xr:uid="{B2792A18-97BD-4893-8A55-6D05F63D5159}"/>
     <hyperlink ref="C55" r:id="rId17" xr:uid="{266EB064-81CC-4C1A-BD29-997DB3E0B441}"/>
     <hyperlink ref="C131" r:id="rId18" xr:uid="{6D2FBC2F-3EB5-42C2-B503-6207742C1D9A}"/>
     <hyperlink ref="C95" r:id="rId19" xr:uid="{197C6B0F-6186-4EF2-B125-DD333D43C155}"/>
-    <hyperlink ref="C83" r:id="rId20" xr:uid="{9200816D-4C69-4FE5-82A8-FE600470D48D}"/>
+    <hyperlink ref="C118" r:id="rId20" xr:uid="{9200816D-4C69-4FE5-82A8-FE600470D48D}"/>
     <hyperlink ref="C134" r:id="rId21" xr:uid="{1C7407B8-7CE0-4D74-B7C8-2E019895038E}"/>
     <hyperlink ref="C100" r:id="rId22" xr:uid="{EFEFF4B0-460A-438D-8496-266C6B55F95E}"/>
     <hyperlink ref="C114" r:id="rId23" xr:uid="{6A6D1497-1047-4105-A19D-30A81EEC5093}"/>
@@ -21034,8 +20932,8 @@
     <hyperlink ref="C89" r:id="rId25" xr:uid="{14C9FEDC-6785-4759-BC18-BC21D365E551}"/>
     <hyperlink ref="C147" r:id="rId26" xr:uid="{48ADBCC5-0562-423D-B00F-C1E35F0F3890}"/>
     <hyperlink ref="C102" r:id="rId27" xr:uid="{B4614CBB-8353-4511-B3E2-B9FAE735F685}"/>
-    <hyperlink ref="C42" r:id="rId28" xr:uid="{9F04D1B7-D6A5-4869-ABE7-C1534C07E27B}"/>
-    <hyperlink ref="C91" r:id="rId29" xr:uid="{BD80DBB0-94FD-4320-BBEE-1ED97B9DDDF6}"/>
+    <hyperlink ref="C99" r:id="rId28" xr:uid="{9F04D1B7-D6A5-4869-ABE7-C1534C07E27B}"/>
+    <hyperlink ref="C7" r:id="rId29" xr:uid="{BD80DBB0-94FD-4320-BBEE-1ED97B9DDDF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId30"/>
@@ -21132,31 +21030,31 @@
         <v>33</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -21168,7 +21066,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -21176,15 +21074,15 @@
         <v>1848</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -21192,7 +21090,7 @@
         <v>1846</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -21200,7 +21098,7 @@
         <v>1851</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
   </sheetData>
@@ -21226,93 +21124,93 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2036</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2258</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B3" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B5" t="s">
         <v>2261</v>
       </c>
-      <c r="B5" t="s">
-        <v>2262</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B6" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D6" t="s">
         <v>2263</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2264</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B7" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B8" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1470</v>
@@ -21320,36 +21218,36 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>2007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2267</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B10" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B11" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -21357,71 +21255,71 @@
         <v>1829</v>
       </c>
       <c r="B12" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>2198</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2271</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B14" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>727</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B15" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B16" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B17" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -21429,68 +21327,68 @@
         <v>1837</v>
       </c>
       <c r="B18" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B19" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B20" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>2050</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2278</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>2159</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.35">
@@ -21498,10 +21396,10 @@
         <v>1831</v>
       </c>
       <c r="B24" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
